--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2643079.7</v>
+        <v>4747411.9</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91140.67999999999</v>
+        <v>103204.61</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183577.88</v>
+        <v>169200.25</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85807.09</v>
+        <v>85801.23</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199688.54</v>
+        <v>194793.73</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139902.09</v>
+        <v>134948.51</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15766.43</v>
+        <v>16630.12</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299059.73</v>
+        <v>299112.67</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104673.56</v>
+        <v>104649.26</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197584.75</v>
+        <v>200032.35</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143592.71</v>
+        <v>139816.5</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85089.28999999999</v>
+        <v>82635.73</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132585.61</v>
+        <v>133585.2</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80184.53</v>
+        <v>80177.36</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201184.99</v>
+        <v>209016.74</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56701.32</v>
+        <v>56685.34</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113167.18</v>
+        <v>114859.7</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120313.44</v>
+        <v>114982.83</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59811.46</v>
+        <v>59783.95</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>88553.67999999999</v>
+        <v>88573.31</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26365.77</v>
+        <v>25089.69</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25442.35</v>
+        <v>28641.02</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33184.51</v>
+        <v>32859.17</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32193.81</v>
+        <v>31687.23</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59882.36</v>
+        <v>73687.48</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26607.16</v>
+        <v>26608.91</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8905.879999999999</v>
+        <v>8908.610000000001</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>71098.63</v>
+        <v>71088.34</v>
       </c>
     </row>
     <row r="30">
@@ -727,27 +727,197 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25367.57</v>
+        <v>25368.69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1684.37</v>
+        <v>25092.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25103.01</v>
+        <v>20565.91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17828.01</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>85154.94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>236760.64</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>22628.73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15718.85</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>88258.57000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1267.13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>281214.34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>35831.38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10946.94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3894.16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>33790.33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>485.28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>464805.74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4066.03</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>241908.74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>547970.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,485 +439,643 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4747411.9</v>
+        <v>73687.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78476.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103204.61</v>
+        <v>169200.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>164475.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169200.25</v>
+        <v>26608.91</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26608.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85801.23</v>
+        <v>32859.17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34819.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194793.73</v>
+        <v>85801.23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85824.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134948.51</v>
+        <v>194793.73</v>
+      </c>
+      <c r="C7" t="n">
+        <v>194733.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16630.12</v>
+        <v>1267.13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1270.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299112.67</v>
+        <v>281214.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>281306.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104649.26</v>
+        <v>8908.610000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8835.940000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200032.35</v>
+        <v>485.28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>451.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>139816.5</v>
+        <v>3894.16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3894.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82635.73</v>
+        <v>134948.51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>143087.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133585.2</v>
-      </c>
+        <v>16630.12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80177.36</v>
+        <v>20565.91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29100.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>209016.74</v>
+        <v>464805.74</v>
+      </c>
+      <c r="C16" t="n">
+        <v>460670.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56685.34</v>
+        <v>299112.67</v>
+      </c>
+      <c r="C17" t="n">
+        <v>299078.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114859.7</v>
+        <v>104649.26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>104654.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114982.83</v>
+        <v>85154.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>85191.82000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59783.95</v>
+        <v>236760.64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>236715.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>88573.31</v>
+        <v>17828.01</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17825.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25089.69</v>
+        <v>35831.38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35857.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28641.02</v>
+        <v>114859.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>122389.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32859.17</v>
+        <v>114982.83</v>
+      </c>
+      <c r="C24" t="n">
+        <v>120543.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31687.23</v>
+        <v>200032.35</v>
+      </c>
+      <c r="C25" t="n">
+        <v>196570.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73687.48</v>
+        <v>139816.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>128858.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26608.91</v>
+        <v>71088.34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71116.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>8908.610000000001</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>540169.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>71088.34</v>
+        <v>25368.69</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26072.86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25368.69</v>
+        <v>4066.03</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4065.63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25092.09</v>
+        <v>82635.73</v>
+      </c>
+      <c r="C31" t="n">
+        <v>88625.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20565.91</v>
+        <v>133585.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>137116.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17828.01</v>
+        <v>28641.02</v>
+      </c>
+      <c r="C33" t="n">
+        <v>28550.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85154.94</v>
+        <v>22628.73</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22630.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236760.64</v>
+        <v>15718.85</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15721.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22628.73</v>
+        <v>25092.09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25097.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15718.85</v>
+        <v>59783.95</v>
+      </c>
+      <c r="C37" t="n">
+        <v>59798.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88258.57000000001</v>
+        <v>88573.31</v>
+      </c>
+      <c r="C38" t="n">
+        <v>98012.89999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1267.13</v>
+        <v>31687.23</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35588.62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>281214.34</v>
+        <v>80177.36</v>
+      </c>
+      <c r="C40" t="n">
+        <v>80197.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35831.38</v>
+        <v>56685.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>56674.56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10946.94</v>
+        <v>209016.74</v>
+      </c>
+      <c r="C42" t="n">
+        <v>223662.49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3894.16</v>
+        <v>241908.74</v>
+      </c>
+      <c r="C43" t="n">
+        <v>241929.54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33790.33</v>
+        <v>547970.17</v>
+      </c>
+      <c r="C44" t="n">
+        <v>603943.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>485.28</v>
+        <v>88258.57000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88367.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>464805.74</v>
+        <v>33790.33</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30657.53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4066.03</v>
+        <v>25089.69</v>
+      </c>
+      <c r="C47" t="n">
+        <v>25084.87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>241908.74</v>
+        <v>10946.94</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10957.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>547970.17</v>
+        <v>103204.61</v>
+      </c>
+      <c r="C49" t="n">
+        <v>116853.95</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4747411.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5375281.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,515 +439,673 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5545832.83</v>
+        <v>78476.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90812.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113180.26</v>
+        <v>164475.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>173984.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78476.92</v>
+        <v>26608.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27374.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164475.4</v>
+        <v>34819.78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35876.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26608.73</v>
+        <v>85824.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85803.85000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34819.78</v>
+        <v>194733.06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>194718.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85824.98</v>
+        <v>95157.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>95138.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194733.06</v>
+        <v>57183.19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61249.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95157.3</v>
+        <v>1270.11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1270.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57183.19</v>
+        <v>281306.99</v>
+      </c>
+      <c r="C11" t="n">
+        <v>281236.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1270.11</v>
+        <v>8835.940000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8836.120000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281306.99</v>
+        <v>451.23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>450.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8835.940000000001</v>
+        <v>3894.07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3894.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>451.23</v>
+        <v>143087.38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>148848.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3894.07</v>
+        <v>18210.62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19324.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>143087.38</v>
+        <v>29100.57</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29065.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18210.62</v>
+        <v>460670.55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>455957.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29100.57</v>
+        <v>299078.34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>299099.85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>460670.55</v>
+        <v>104654.6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>104680.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>299078.34</v>
+        <v>17825.12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17840.26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104654.6</v>
+        <v>85191.82000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>85194.27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17825.12</v>
+        <v>236715.38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>236685.76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85191.82000000001</v>
+        <v>35857.41</v>
+      </c>
+      <c r="C24" t="n">
+        <v>35804.91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>236715.38</v>
+        <v>122389.53</v>
+      </c>
+      <c r="C25" t="n">
+        <v>118545.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35857.41</v>
+        <v>120543.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>116901.71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122389.53</v>
+        <v>196570.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>199818.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120543.2</v>
+        <v>128858.05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>121976.55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196570.7</v>
+        <v>71116.75</v>
+      </c>
+      <c r="C29" t="n">
+        <v>71086.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>128858.05</v>
+        <v>540169.14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>550171.0699999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71116.75</v>
+        <v>26072.86</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26066.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>540169.14</v>
+        <v>4065.63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4066.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26072.86</v>
+        <v>88625.83</v>
+      </c>
+      <c r="C33" t="n">
+        <v>90634.21000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4065.63</v>
+        <v>137116.83</v>
+      </c>
+      <c r="C34" t="n">
+        <v>139635.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88625.83</v>
+        <v>28550.44</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29876.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137116.83</v>
+        <v>22630.17</v>
+      </c>
+      <c r="C36" t="n">
+        <v>23803.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28550.44</v>
+        <v>15721.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15723.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22630.17</v>
+        <v>25097.35</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25101.66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15721.9</v>
+        <v>59798.1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>59785.34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25097.35</v>
+        <v>98012.89999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>98045.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>59798.1</v>
+        <v>35588.62</v>
+      </c>
+      <c r="C41" t="n">
+        <v>35601.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98012.89999999999</v>
+        <v>80197.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>80186.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35588.62</v>
+        <v>56674.56</v>
+      </c>
+      <c r="C43" t="n">
+        <v>56675.38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80197.7</v>
+        <v>223662.49</v>
+      </c>
+      <c r="C44" t="n">
+        <v>223571.26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56674.56</v>
+        <v>241929.54</v>
+      </c>
+      <c r="C45" t="n">
+        <v>242001.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>223662.49</v>
+        <v>603943.27</v>
+      </c>
+      <c r="C46" t="n">
+        <v>660221.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>241929.54</v>
+        <v>88367.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>88426.83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>603943.27</v>
+        <v>30657.53</v>
+      </c>
+      <c r="C48" t="n">
+        <v>30750.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>88367.8</v>
+        <v>25084.87</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25868.73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>30657.53</v>
+        <v>10957.58</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10959.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25084.87</v>
+        <v>113180.26</v>
+      </c>
+      <c r="C51" t="n">
+        <v>115074.54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10957.58</v>
+        <v>5545832.83</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5638652.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -675,9 +675,7 @@
       <c r="B19" t="n">
         <v>299078.34</v>
       </c>
-      <c r="C19" t="n">
-        <v>299099.85</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +686,7 @@
       <c r="B20" t="n">
         <v>104654.6</v>
       </c>
-      <c r="C20" t="n">
-        <v>104680.76</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +697,7 @@
       <c r="B21" t="n">
         <v>17825.12</v>
       </c>
-      <c r="C21" t="n">
-        <v>17840.26</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +708,7 @@
       <c r="B22" t="n">
         <v>85191.82000000001</v>
       </c>
-      <c r="C22" t="n">
-        <v>85194.27</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +719,7 @@
       <c r="B23" t="n">
         <v>236715.38</v>
       </c>
-      <c r="C23" t="n">
-        <v>236685.76</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +730,7 @@
       <c r="B24" t="n">
         <v>35857.41</v>
       </c>
-      <c r="C24" t="n">
-        <v>35804.91</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +741,7 @@
       <c r="B25" t="n">
         <v>122389.53</v>
       </c>
-      <c r="C25" t="n">
-        <v>118545.95</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +752,7 @@
       <c r="B26" t="n">
         <v>120543.2</v>
       </c>
-      <c r="C26" t="n">
-        <v>116901.71</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -779,9 +763,7 @@
       <c r="B27" t="n">
         <v>196570.7</v>
       </c>
-      <c r="C27" t="n">
-        <v>199818.62</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -935,9 +917,7 @@
       <c r="B39" t="n">
         <v>59798.1</v>
       </c>
-      <c r="C39" t="n">
-        <v>59785.34</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1092,7 +1072,7 @@
         <v>113180.26</v>
       </c>
       <c r="C51" t="n">
-        <v>115074.54</v>
+        <v>111905</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1085,7 @@
         <v>5545832.83</v>
       </c>
       <c r="C52" t="n">
-        <v>5638652.4</v>
+        <v>4364294.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>78476.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90812.03</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95588.87</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97865.92</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97886.47</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97872.66</v>
+      </c>
+      <c r="H2" t="n">
+        <v>92724.05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80950.35000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>78388.97</v>
+      </c>
+      <c r="K2" t="n">
+        <v>73928.33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>73932.32000000001</v>
+      </c>
+      <c r="M2" t="n">
         <v>73934.61</v>
-      </c>
-      <c r="C2" t="n">
-        <v>74898.3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75575.87</v>
-      </c>
-      <c r="E2" t="n">
-        <v>72930.06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>74796.87</v>
-      </c>
-      <c r="G2" t="n">
-        <v>74815.99000000001</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>164475.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>173984.09</v>
+      </c>
+      <c r="D3" t="n">
+        <v>173991.51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>184348.47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>177195.86</v>
+      </c>
+      <c r="G3" t="n">
+        <v>175301</v>
+      </c>
+      <c r="H3" t="n">
+        <v>167277.79</v>
+      </c>
+      <c r="I3" t="n">
+        <v>167265.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>173696.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>169862.78</v>
+      </c>
+      <c r="L3" t="n">
+        <v>173529.32</v>
+      </c>
+      <c r="M3" t="n">
         <v>149252.95</v>
-      </c>
-      <c r="C3" t="n">
-        <v>147443.36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>148738.39</v>
-      </c>
-      <c r="E3" t="n">
-        <v>143507.53</v>
-      </c>
-      <c r="F3" t="n">
-        <v>143453</v>
-      </c>
-      <c r="G3" t="n">
-        <v>149547.89</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>26608.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27374.89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29811.14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31018.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33007.63</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33042.02</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33008.99</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33010.89</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33072.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33022.19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30001.94</v>
+      </c>
+      <c r="M4" t="n">
         <v>30000.39</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30003.06</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30236.68</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31497.71</v>
-      </c>
-      <c r="F4" t="n">
-        <v>31500.01</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31503.87</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>34819.78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35876.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36461.29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36906.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36921.63</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36911.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36911.92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36915.87</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36912.18</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37365.21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>37365.24</v>
+      </c>
+      <c r="M5" t="n">
         <v>37384.27</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33316.54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32945.69</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32667.67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33237.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33807.55</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>85824.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85803.85000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>85800.02</v>
+      </c>
+      <c r="E6" t="n">
+        <v>85792.33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>85789.78</v>
+      </c>
+      <c r="G6" t="n">
+        <v>85818.61</v>
+      </c>
+      <c r="H6" t="n">
+        <v>85837.92</v>
+      </c>
+      <c r="I6" t="n">
+        <v>85808.31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>85821.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>85797.71000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>85790.00999999999</v>
+      </c>
+      <c r="M6" t="n">
         <v>85799.02</v>
-      </c>
-      <c r="C6" t="n">
-        <v>85794.69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>86544.92</v>
-      </c>
-      <c r="E6" t="n">
-        <v>85813.02</v>
-      </c>
-      <c r="F6" t="n">
-        <v>85827.23</v>
-      </c>
-      <c r="G6" t="n">
-        <v>85817.52</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>194733.06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>194718.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>194727.22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>194822.08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>194744.21</v>
+      </c>
+      <c r="G7" t="n">
+        <v>194774.08</v>
+      </c>
+      <c r="H7" t="n">
+        <v>194792.44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>192391.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>182196.28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>173836.31</v>
+      </c>
+      <c r="L7" t="n">
+        <v>162313.31</v>
+      </c>
+      <c r="M7" t="n">
         <v>162370.89</v>
-      </c>
-      <c r="C7" t="n">
-        <v>153452.89</v>
-      </c>
-      <c r="D7" t="n">
-        <v>143793.68</v>
-      </c>
-      <c r="E7" t="n">
-        <v>139070.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>139059.97</v>
-      </c>
-      <c r="G7" t="n">
-        <v>138995.46</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>95157.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>95138.52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95115.16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>95143.82000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>95139.57000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>95158.86</v>
+      </c>
+      <c r="H8" t="n">
+        <v>95120</v>
+      </c>
+      <c r="I8" t="n">
+        <v>95116.53999999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>95122.09</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95121.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>95157.57000000001</v>
+      </c>
+      <c r="M8" t="n">
         <v>95152.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>90075.67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90841.60000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>82407.89</v>
-      </c>
-      <c r="F8" t="n">
-        <v>82415.34</v>
-      </c>
-      <c r="G8" t="n">
-        <v>91834.55</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>57183.19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61249.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58454.46</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60753.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60749.04</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64307.81</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64318.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64317.18</v>
+      </c>
+      <c r="J9" t="n">
+        <v>64301.72</v>
+      </c>
+      <c r="K9" t="n">
+        <v>64305.41</v>
+      </c>
+      <c r="L9" t="n">
+        <v>61677.19</v>
+      </c>
+      <c r="M9" t="n">
         <v>53627.24</v>
-      </c>
-      <c r="C9" t="n">
-        <v>53624.79</v>
-      </c>
-      <c r="D9" t="n">
-        <v>54086.8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>53612.51</v>
-      </c>
-      <c r="F9" t="n">
-        <v>53620.22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>69818.49000000001</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>1270.11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1270.69</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1265.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1268.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1269.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2436.69</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2434.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2438.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2440.18</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1733.88</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1737.05</v>
+      </c>
+      <c r="M10" t="n">
         <v>1735.94</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1731.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1750.63</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1735.09</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1733.87</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1735.3</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>281306.99</v>
+      </c>
+      <c r="C11" t="n">
+        <v>281236.14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>281135.64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>281025.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>281002.56</v>
+      </c>
+      <c r="G11" t="n">
+        <v>281142.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>281037.31</v>
+      </c>
+      <c r="I11" t="n">
+        <v>281200.82</v>
+      </c>
+      <c r="J11" t="n">
+        <v>281087.59</v>
+      </c>
+      <c r="K11" t="n">
+        <v>280994.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>281112.1</v>
+      </c>
+      <c r="M11" t="n">
         <v>281191.59</v>
-      </c>
-      <c r="C11" t="n">
-        <v>281121.56</v>
-      </c>
-      <c r="D11" t="n">
-        <v>283552.45</v>
-      </c>
-      <c r="E11" t="n">
-        <v>281165.72</v>
-      </c>
-      <c r="F11" t="n">
-        <v>282079.9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>282151.36</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>8835.940000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8836.120000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8835.92</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8834.43</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8850.950000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8850.77</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8848.879999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8850.35</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8811.620000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1053.21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1053.09</v>
+      </c>
+      <c r="M12" t="n">
         <v>1052.96</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1053.02</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1062.27</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1053.02</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1052.81</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1053.2</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>451.23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>450.83</v>
+      </c>
+      <c r="D13" t="n">
+        <v>450.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>450.67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>451.35</v>
+      </c>
+      <c r="G13" t="n">
+        <v>450.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>450.91</v>
+      </c>
+      <c r="J13" t="n">
+        <v>451.21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>451.26</v>
+      </c>
+      <c r="L13" t="n">
+        <v>451.09</v>
+      </c>
+      <c r="M13" t="n">
         <v>450.64</v>
-      </c>
-      <c r="C13" t="n">
-        <v>451.19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>455.2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>450.78</v>
-      </c>
-      <c r="F13" t="n">
-        <v>451.03</v>
-      </c>
-      <c r="G13" t="n">
-        <v>450.82</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>3894.07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3894.72</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3893.79</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3894.98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3892.82</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3894.24</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3891.89</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3892.58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3893.85</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3894.88</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3890.85</v>
+      </c>
+      <c r="M14" t="n">
         <v>3847.12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3850.72</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3883.29</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3847.94</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3847.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3850.04</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>143087.38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>148848.48</v>
+      </c>
+      <c r="D15" t="n">
+        <v>142381.02</v>
+      </c>
+      <c r="E15" t="n">
+        <v>149272.49</v>
+      </c>
+      <c r="F15" t="n">
+        <v>154776.79</v>
+      </c>
+      <c r="G15" t="n">
+        <v>154110.96</v>
+      </c>
+      <c r="H15" t="n">
+        <v>155110.16</v>
+      </c>
+      <c r="I15" t="n">
+        <v>155096.35</v>
+      </c>
+      <c r="J15" t="n">
+        <v>152178.24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>152426.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>147818.93</v>
+      </c>
+      <c r="M15" t="n">
         <v>147814.63</v>
-      </c>
-      <c r="C15" t="n">
-        <v>131188.25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>125989.17</v>
-      </c>
-      <c r="E15" t="n">
-        <v>122491.84</v>
-      </c>
-      <c r="F15" t="n">
-        <v>124277.01</v>
-      </c>
-      <c r="G15" t="n">
-        <v>127540.67</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1104,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>18210.62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19324.04</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19316.33</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20123.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23395.89</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23395.53</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23393.13</v>
+      </c>
+      <c r="I16" t="n">
+        <v>23384.28</v>
+      </c>
+      <c r="J16" t="n">
+        <v>23387.97</v>
+      </c>
+      <c r="K16" t="n">
+        <v>23389.81</v>
+      </c>
+      <c r="L16" t="n">
+        <v>23384.68</v>
+      </c>
+      <c r="M16" t="n">
         <v>23383.09</v>
-      </c>
-      <c r="C16" t="n">
-        <v>23392.01</v>
-      </c>
-      <c r="D16" t="n">
-        <v>23600.56</v>
-      </c>
-      <c r="E16" t="n">
-        <v>23386.14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23385.74</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23398.04</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1147,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>29100.57</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29065.99</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30769.35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30766.95</v>
+      </c>
+      <c r="F17" t="n">
+        <v>32526.22</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32536.97</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32508.49</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32536.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32535.98</v>
+      </c>
+      <c r="K17" t="n">
+        <v>32525.51</v>
+      </c>
+      <c r="L17" t="n">
+        <v>32530.4</v>
+      </c>
+      <c r="M17" t="n">
         <v>32502.87</v>
-      </c>
-      <c r="C17" t="n">
-        <v>32525.85</v>
-      </c>
-      <c r="D17" t="n">
-        <v>32805.17</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32518.45</v>
-      </c>
-      <c r="F17" t="n">
-        <v>32520.81</v>
-      </c>
-      <c r="G17" t="n">
-        <v>32534.12</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1190,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>460670.55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>455957.45</v>
+      </c>
+      <c r="D18" t="n">
+        <v>454279.37</v>
+      </c>
+      <c r="E18" t="n">
+        <v>450508.46</v>
+      </c>
+      <c r="F18" t="n">
+        <v>447976.29</v>
+      </c>
+      <c r="G18" t="n">
+        <v>444993.43</v>
+      </c>
+      <c r="H18" t="n">
+        <v>442222.74</v>
+      </c>
+      <c r="I18" t="n">
+        <v>438885.51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>433477.91</v>
+      </c>
+      <c r="K18" t="n">
+        <v>430966.86</v>
+      </c>
+      <c r="L18" t="n">
+        <v>430132.69</v>
+      </c>
+      <c r="M18" t="n">
         <v>426332.79</v>
-      </c>
-      <c r="C18" t="n">
-        <v>424362.95</v>
-      </c>
-      <c r="D18" t="n">
-        <v>424911.26</v>
-      </c>
-      <c r="E18" t="n">
-        <v>418751.56</v>
-      </c>
-      <c r="F18" t="n">
-        <v>416689.47</v>
-      </c>
-      <c r="G18" t="n">
-        <v>414818.97</v>
       </c>
     </row>
     <row r="19">
@@ -896,23 +1232,21 @@
           <t>Compass Crecimiento II</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>269.42</v>
+      </c>
+      <c r="M19" t="n">
         <v>270.22</v>
-      </c>
-      <c r="C19" t="n">
-        <v>270.54</v>
-      </c>
-      <c r="D19" t="n">
-        <v>271.75</v>
-      </c>
-      <c r="E19" t="n">
-        <v>270.18</v>
-      </c>
-      <c r="F19" t="n">
-        <v>270.49</v>
-      </c>
-      <c r="G19" t="n">
-        <v>269.64</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1256,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>299078.34</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>299077.45</v>
+      </c>
+      <c r="E20" t="n">
+        <v>299223.59</v>
+      </c>
+      <c r="F20" t="n">
+        <v>287336.59</v>
+      </c>
+      <c r="G20" t="n">
+        <v>287192.11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>283852.74</v>
+      </c>
+      <c r="I20" t="n">
+        <v>287382.84</v>
+      </c>
+      <c r="J20" t="n">
+        <v>287817.68</v>
+      </c>
+      <c r="K20" t="n">
+        <v>276037.99</v>
+      </c>
+      <c r="L20" t="n">
+        <v>276006.89</v>
+      </c>
+      <c r="M20" t="n">
         <v>269489.02</v>
-      </c>
-      <c r="C20" t="n">
-        <v>269533.47</v>
-      </c>
-      <c r="D20" t="n">
-        <v>271906.74</v>
-      </c>
-      <c r="E20" t="n">
-        <v>262525.64</v>
-      </c>
-      <c r="F20" t="n">
-        <v>262533.81</v>
-      </c>
-      <c r="G20" t="n">
-        <v>258595.28</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1297,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>104654.6</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>112184.64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>112156.55</v>
+      </c>
+      <c r="F21" t="n">
+        <v>124038.56</v>
+      </c>
+      <c r="G21" t="n">
+        <v>124076.53</v>
+      </c>
+      <c r="H21" t="n">
+        <v>126145.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>122636.93</v>
+      </c>
+      <c r="J21" t="n">
+        <v>116656.91</v>
+      </c>
+      <c r="K21" t="n">
+        <v>116627.74</v>
+      </c>
+      <c r="L21" t="n">
+        <v>116650.44</v>
+      </c>
+      <c r="M21" t="n">
         <v>116637.72</v>
-      </c>
-      <c r="C21" t="n">
-        <v>116637.84</v>
-      </c>
-      <c r="D21" t="n">
-        <v>117633.23</v>
-      </c>
-      <c r="E21" t="n">
-        <v>110621.68</v>
-      </c>
-      <c r="F21" t="n">
-        <v>110601.64</v>
-      </c>
-      <c r="G21" t="n">
-        <v>114546.14</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1338,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>17825.12</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>17846.52</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17827.49</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17843.6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17848</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17846.84</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17841.27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>17841.58</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17829.71</v>
+      </c>
+      <c r="L22" t="n">
+        <v>17847.54</v>
+      </c>
+      <c r="M22" t="n">
         <v>17838.87</v>
-      </c>
-      <c r="C22" t="n">
-        <v>17842.69</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17987.85</v>
-      </c>
-      <c r="E22" t="n">
-        <v>17846.94</v>
-      </c>
-      <c r="F22" t="n">
-        <v>17848.18</v>
-      </c>
-      <c r="G22" t="n">
-        <v>14114.01</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1379,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>85191.82000000001</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>79633.19</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77412.09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>76010.74000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>72392.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>72376.09</v>
+      </c>
+      <c r="I23" t="n">
+        <v>72404.19</v>
+      </c>
+      <c r="J23" t="n">
+        <v>68958.35000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>67497.62</v>
+      </c>
+      <c r="L23" t="n">
+        <v>64281.25</v>
+      </c>
+      <c r="M23" t="n">
         <v>64232.99</v>
-      </c>
-      <c r="C23" t="n">
-        <v>64246.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>63736.71</v>
-      </c>
-      <c r="E23" t="n">
-        <v>63175.52</v>
-      </c>
-      <c r="F23" t="n">
-        <v>63197.38</v>
-      </c>
-      <c r="G23" t="n">
-        <v>63203.52</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1420,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>236715.38</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>233367.54</v>
+      </c>
+      <c r="E24" t="n">
+        <v>229174.72</v>
+      </c>
+      <c r="F24" t="n">
+        <v>215720.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>206361.13</v>
+      </c>
+      <c r="H24" t="n">
+        <v>206395.95</v>
+      </c>
+      <c r="I24" t="n">
+        <v>206380.19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>206369.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>206418.61</v>
+      </c>
+      <c r="L24" t="n">
+        <v>206453.36</v>
+      </c>
+      <c r="M24" t="n">
         <v>206394.71</v>
-      </c>
-      <c r="C24" t="n">
-        <v>206431.97</v>
-      </c>
-      <c r="D24" t="n">
-        <v>208173.87</v>
-      </c>
-      <c r="E24" t="n">
-        <v>200452.14</v>
-      </c>
-      <c r="F24" t="n">
-        <v>200413.74</v>
-      </c>
-      <c r="G24" t="n">
-        <v>189217.37</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1461,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>35857.41</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>35801.2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>35847.13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>35788.46</v>
+      </c>
+      <c r="G25" t="n">
+        <v>35839.95</v>
+      </c>
+      <c r="H25" t="n">
+        <v>35827.92</v>
+      </c>
+      <c r="I25" t="n">
+        <v>35822.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>35860.06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>35814.79</v>
+      </c>
+      <c r="L25" t="n">
+        <v>35798.81</v>
+      </c>
+      <c r="M25" t="n">
         <v>35751.34</v>
-      </c>
-      <c r="C25" t="n">
-        <v>35775.11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>36090.79</v>
-      </c>
-      <c r="E25" t="n">
-        <v>35776.48</v>
-      </c>
-      <c r="F25" t="n">
-        <v>35779.53</v>
-      </c>
-      <c r="G25" t="n">
-        <v>33029.55</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1502,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>122389.53</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>120943.03</v>
+      </c>
+      <c r="E26" t="n">
+        <v>133216.34</v>
+      </c>
+      <c r="F26" t="n">
+        <v>137457.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>141409.92</v>
+      </c>
+      <c r="H26" t="n">
+        <v>149339.37</v>
+      </c>
+      <c r="I26" t="n">
+        <v>146633.57</v>
+      </c>
+      <c r="J26" t="n">
+        <v>145660.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>140331.54</v>
+      </c>
+      <c r="L26" t="n">
+        <v>139228.62</v>
+      </c>
+      <c r="M26" t="n">
         <v>132238.09</v>
-      </c>
-      <c r="C26" t="n">
-        <v>127962.93</v>
-      </c>
-      <c r="D26" t="n">
-        <v>130132.67</v>
-      </c>
-      <c r="E26" t="n">
-        <v>126455.04</v>
-      </c>
-      <c r="F26" t="n">
-        <v>136787.89</v>
-      </c>
-      <c r="G26" t="n">
-        <v>142442.21</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1543,38 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>120543.2</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>123892.09</v>
+      </c>
+      <c r="E27" t="n">
+        <v>126337.61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>126508.24</v>
+      </c>
+      <c r="G27" t="n">
+        <v>129369.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>136528.16</v>
+      </c>
+      <c r="I27" t="n">
+        <v>136196.95</v>
+      </c>
+      <c r="J27" t="n">
+        <v>135042.13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>135065.26</v>
+      </c>
+      <c r="L27" t="n">
+        <v>132139.32</v>
+      </c>
+      <c r="M27" t="n">
         <v>125036.27</v>
-      </c>
-      <c r="C27" t="n">
-        <v>120405.16</v>
-      </c>
-      <c r="D27" t="n">
-        <v>121455.3</v>
-      </c>
-      <c r="E27" t="n">
-        <v>117479.41</v>
-      </c>
-      <c r="F27" t="n">
-        <v>129324.6</v>
-      </c>
-      <c r="G27" t="n">
-        <v>133443.09</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1584,38 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>196570.7</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>185807.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>208228.75</v>
+      </c>
+      <c r="F28" t="n">
+        <v>206761.29</v>
+      </c>
+      <c r="G28" t="n">
+        <v>206809.41</v>
+      </c>
+      <c r="H28" t="n">
+        <v>206811.12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>204500.92</v>
+      </c>
+      <c r="J28" t="n">
+        <v>202079.09</v>
+      </c>
+      <c r="K28" t="n">
+        <v>202132.13</v>
+      </c>
+      <c r="L28" t="n">
+        <v>196184.13</v>
+      </c>
+      <c r="M28" t="n">
         <v>190615.98</v>
-      </c>
-      <c r="C28" t="n">
-        <v>189672.28</v>
-      </c>
-      <c r="D28" t="n">
-        <v>190892.84</v>
-      </c>
-      <c r="E28" t="n">
-        <v>183268.41</v>
-      </c>
-      <c r="F28" t="n">
-        <v>193246.19</v>
-      </c>
-      <c r="G28" t="n">
-        <v>196714.36</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1625,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>128858.05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>121976.55</v>
+      </c>
+      <c r="D29" t="n">
+        <v>126962.49</v>
+      </c>
+      <c r="E29" t="n">
+        <v>137975.94</v>
+      </c>
+      <c r="F29" t="n">
+        <v>138800.87</v>
+      </c>
+      <c r="G29" t="n">
+        <v>142823.43</v>
+      </c>
+      <c r="H29" t="n">
+        <v>142858.27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>142816.61</v>
+      </c>
+      <c r="J29" t="n">
+        <v>142804.23</v>
+      </c>
+      <c r="K29" t="n">
+        <v>152842.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>151325.15</v>
+      </c>
+      <c r="M29" t="n">
         <v>152836.76</v>
-      </c>
-      <c r="C29" t="n">
-        <v>140818.08</v>
-      </c>
-      <c r="D29" t="n">
-        <v>142061.95</v>
-      </c>
-      <c r="E29" t="n">
-        <v>105859.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>105842.87</v>
-      </c>
-      <c r="G29" t="n">
-        <v>103871.02</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1668,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>71116.75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>71086.22</v>
+      </c>
+      <c r="D30" t="n">
+        <v>62846.99</v>
+      </c>
+      <c r="E30" t="n">
+        <v>51637.68</v>
+      </c>
+      <c r="F30" t="n">
+        <v>51627.87</v>
+      </c>
+      <c r="G30" t="n">
+        <v>51623.28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>51612.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>51626.62</v>
+      </c>
+      <c r="J30" t="n">
+        <v>51624.28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>51629.65</v>
+      </c>
+      <c r="L30" t="n">
+        <v>51622.97</v>
+      </c>
+      <c r="M30" t="n">
         <v>48037.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>48023.56</v>
-      </c>
-      <c r="D30" t="n">
-        <v>48232.17</v>
-      </c>
-      <c r="E30" t="n">
-        <v>47810.08</v>
-      </c>
-      <c r="F30" t="n">
-        <v>47834.83</v>
-      </c>
-      <c r="G30" t="n">
-        <v>47825.53</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1711,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>540169.14</v>
+      </c>
+      <c r="C31" t="n">
+        <v>550171.0699999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>550020.61</v>
+      </c>
+      <c r="E31" t="n">
+        <v>550077.4399999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>524985.6800000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>524917.26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>525015.26</v>
+      </c>
+      <c r="I31" t="n">
+        <v>524857.97</v>
+      </c>
+      <c r="J31" t="n">
+        <v>524988.67</v>
+      </c>
+      <c r="K31" t="n">
+        <v>500159.77</v>
+      </c>
+      <c r="L31" t="n">
+        <v>499975.3</v>
+      </c>
+      <c r="M31" t="n">
         <v>500020.63</v>
-      </c>
-      <c r="C31" t="n">
-        <v>500040.94</v>
-      </c>
-      <c r="D31" t="n">
-        <v>504296.84</v>
-      </c>
-      <c r="E31" t="n">
-        <v>500019.13</v>
-      </c>
-      <c r="F31" t="n">
-        <v>525047.16</v>
-      </c>
-      <c r="G31" t="n">
-        <v>524913.4399999999</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1754,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>26072.86</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26066.84</v>
+      </c>
+      <c r="D32" t="n">
+        <v>23565.37</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23368.06</v>
+      </c>
+      <c r="F32" t="n">
+        <v>23366.56</v>
+      </c>
+      <c r="G32" t="n">
+        <v>23371.38</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23373.14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>24375.27</v>
+      </c>
+      <c r="J32" t="n">
+        <v>24365.96</v>
+      </c>
+      <c r="K32" t="n">
+        <v>24370.77</v>
+      </c>
+      <c r="L32" t="n">
+        <v>22774.01</v>
+      </c>
+      <c r="M32" t="n">
         <v>22773.01</v>
-      </c>
-      <c r="C32" t="n">
-        <v>22767.17</v>
-      </c>
-      <c r="D32" t="n">
-        <v>22162.9</v>
-      </c>
-      <c r="E32" t="n">
-        <v>21371.66</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21374.74</v>
-      </c>
-      <c r="G32" t="n">
-        <v>23575.1</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1797,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>4065.63</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4066.04</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4066.06</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4515.83</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4513.93</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4916.14</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4915.26</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4915.02</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4913.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4915.43</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4915.6</v>
+      </c>
+      <c r="M33" t="n">
         <v>4913.95</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4916.26</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4957.4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5514.6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5516.18</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6965.99</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1840,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>88625.83</v>
+      </c>
+      <c r="C34" t="n">
+        <v>90634.21000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>89422.64</v>
+      </c>
+      <c r="E34" t="n">
+        <v>87402.08</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85417.88</v>
+      </c>
+      <c r="G34" t="n">
+        <v>83405.27</v>
+      </c>
+      <c r="H34" t="n">
+        <v>81925.62</v>
+      </c>
+      <c r="I34" t="n">
+        <v>73404.06</v>
+      </c>
+      <c r="J34" t="n">
+        <v>70908.88</v>
+      </c>
+      <c r="K34" t="n">
+        <v>68923.34</v>
+      </c>
+      <c r="L34" t="n">
+        <v>55925.38</v>
+      </c>
+      <c r="M34" t="n">
         <v>55922.63</v>
-      </c>
-      <c r="C34" t="n">
-        <v>57415.66</v>
-      </c>
-      <c r="D34" t="n">
-        <v>57916.91</v>
-      </c>
-      <c r="E34" t="n">
-        <v>55923.89</v>
-      </c>
-      <c r="F34" t="n">
-        <v>56420.94</v>
-      </c>
-      <c r="G34" t="n">
-        <v>54630.16</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1883,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>137116.83</v>
+      </c>
+      <c r="C35" t="n">
+        <v>139635.16</v>
+      </c>
+      <c r="D35" t="n">
+        <v>103133.48</v>
+      </c>
+      <c r="E35" t="n">
+        <v>105603.26</v>
+      </c>
+      <c r="F35" t="n">
+        <v>105593.3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>109598.08</v>
+      </c>
+      <c r="H35" t="n">
+        <v>112586.88</v>
+      </c>
+      <c r="I35" t="n">
+        <v>111637.04</v>
+      </c>
+      <c r="J35" t="n">
+        <v>111632.03</v>
+      </c>
+      <c r="K35" t="n">
+        <v>114622.72</v>
+      </c>
+      <c r="L35" t="n">
+        <v>105923.81</v>
+      </c>
+      <c r="M35" t="n">
         <v>105898.88</v>
-      </c>
-      <c r="C35" t="n">
-        <v>107422.46</v>
-      </c>
-      <c r="D35" t="n">
-        <v>108324.56</v>
-      </c>
-      <c r="E35" t="n">
-        <v>107434.23</v>
-      </c>
-      <c r="F35" t="n">
-        <v>107393.65</v>
-      </c>
-      <c r="G35" t="n">
-        <v>112432.34</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1926,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>28550.44</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29876.95</v>
+      </c>
+      <c r="D36" t="n">
+        <v>38371.7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>40184.05</v>
+      </c>
+      <c r="F36" t="n">
+        <v>39806.23</v>
+      </c>
+      <c r="G36" t="n">
+        <v>39796.01</v>
+      </c>
+      <c r="H36" t="n">
+        <v>47271.77</v>
+      </c>
+      <c r="I36" t="n">
+        <v>47270.26</v>
+      </c>
+      <c r="J36" t="n">
+        <v>47289.79</v>
+      </c>
+      <c r="K36" t="n">
+        <v>47283.17</v>
+      </c>
+      <c r="L36" t="n">
+        <v>46945.15</v>
+      </c>
+      <c r="M36" t="n">
         <v>41383.26</v>
-      </c>
-      <c r="C36" t="n">
-        <v>41380.49</v>
-      </c>
-      <c r="D36" t="n">
-        <v>40571.2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>39832.58</v>
-      </c>
-      <c r="F36" t="n">
-        <v>40529.89</v>
-      </c>
-      <c r="G36" t="n">
-        <v>43013.22</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1969,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>22630.17</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23803.54</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25402.31</v>
+      </c>
+      <c r="E37" t="n">
+        <v>28596.32</v>
+      </c>
+      <c r="F37" t="n">
+        <v>28500.35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>29193.95</v>
+      </c>
+      <c r="H37" t="n">
+        <v>29191.58</v>
+      </c>
+      <c r="I37" t="n">
+        <v>29205.51</v>
+      </c>
+      <c r="J37" t="n">
+        <v>29005.49</v>
+      </c>
+      <c r="K37" t="n">
+        <v>27925.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>27473.51</v>
+      </c>
+      <c r="M37" t="n">
         <v>22997.24</v>
-      </c>
-      <c r="C37" t="n">
-        <v>22194.6</v>
-      </c>
-      <c r="D37" t="n">
-        <v>22396.05</v>
-      </c>
-      <c r="E37" t="n">
-        <v>22195.19</v>
-      </c>
-      <c r="F37" t="n">
-        <v>22798.26</v>
-      </c>
-      <c r="G37" t="n">
-        <v>24369.83</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2012,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>15721.9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15723.67</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15717.55</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15727.67</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15723.65</v>
+      </c>
+      <c r="G38" t="n">
+        <v>15724.25</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15719.09</v>
+      </c>
+      <c r="I38" t="n">
+        <v>15718.14</v>
+      </c>
+      <c r="J38" t="n">
+        <v>15726.42</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15729.27</v>
+      </c>
+      <c r="L38" t="n">
+        <v>15724.56</v>
+      </c>
+      <c r="M38" t="n">
         <v>15721.23</v>
-      </c>
-      <c r="C38" t="n">
-        <v>15721.48</v>
-      </c>
-      <c r="D38" t="n">
-        <v>15857.51</v>
-      </c>
-      <c r="E38" t="n">
-        <v>15727.61</v>
-      </c>
-      <c r="F38" t="n">
-        <v>15724.03</v>
-      </c>
-      <c r="G38" t="n">
-        <v>15727.56</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2055,40 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>25097.35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25101.66</v>
+      </c>
+      <c r="D39" t="n">
+        <v>18101.92</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21999.94</v>
+      </c>
+      <c r="F39" t="n">
+        <v>21387.63</v>
+      </c>
+      <c r="G39" t="n">
+        <v>23185.77</v>
+      </c>
+      <c r="H39" t="n">
+        <v>23193.75</v>
+      </c>
+      <c r="I39" t="n">
+        <v>23186.45</v>
+      </c>
+      <c r="J39" t="n">
+        <v>23191.49</v>
+      </c>
+      <c r="K39" t="n">
+        <v>23191.57</v>
+      </c>
+      <c r="L39" t="n">
+        <v>23184.53</v>
+      </c>
+      <c r="M39" t="n">
         <v>23184.33</v>
-      </c>
-      <c r="C39" t="n">
-        <v>23186.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>23387.23</v>
-      </c>
-      <c r="E39" t="n">
-        <v>22638.18</v>
-      </c>
-      <c r="F39" t="n">
-        <v>22639.09</v>
-      </c>
-      <c r="G39" t="n">
-        <v>22641.18</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2098,38 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>59798.1</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>59805.93</v>
+      </c>
+      <c r="E40" t="n">
+        <v>59792.52</v>
+      </c>
+      <c r="F40" t="n">
+        <v>59806.38</v>
+      </c>
+      <c r="G40" t="n">
+        <v>59790.22</v>
+      </c>
+      <c r="H40" t="n">
+        <v>59794.62</v>
+      </c>
+      <c r="I40" t="n">
+        <v>59808.13</v>
+      </c>
+      <c r="J40" t="n">
+        <v>59786.09</v>
+      </c>
+      <c r="K40" t="n">
+        <v>59797.46</v>
+      </c>
+      <c r="L40" t="n">
+        <v>59794.32</v>
+      </c>
+      <c r="M40" t="n">
         <v>59806.92</v>
-      </c>
-      <c r="C40" t="n">
-        <v>59788.71</v>
-      </c>
-      <c r="D40" t="n">
-        <v>60310.11</v>
-      </c>
-      <c r="E40" t="n">
-        <v>59793.59</v>
-      </c>
-      <c r="F40" t="n">
-        <v>59801.43</v>
-      </c>
-      <c r="G40" t="n">
-        <v>59787.03</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2139,40 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>98012.89999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>98045.22</v>
+      </c>
+      <c r="D41" t="n">
+        <v>109811</v>
+      </c>
+      <c r="E41" t="n">
+        <v>109860.13</v>
+      </c>
+      <c r="F41" t="n">
+        <v>109831.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>114856.28</v>
+      </c>
+      <c r="H41" t="n">
+        <v>114819.19</v>
+      </c>
+      <c r="I41" t="n">
+        <v>114844.91</v>
+      </c>
+      <c r="J41" t="n">
+        <v>114826.97</v>
+      </c>
+      <c r="K41" t="n">
+        <v>108259.64</v>
+      </c>
+      <c r="L41" t="n">
+        <v>95045.58</v>
+      </c>
+      <c r="M41" t="n">
         <v>95020.24000000001</v>
-      </c>
-      <c r="C41" t="n">
-        <v>95054.00999999999</v>
-      </c>
-      <c r="D41" t="n">
-        <v>95843.64999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>95025.82000000001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>95051.08</v>
-      </c>
-      <c r="G41" t="n">
-        <v>95041.38</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2182,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>35588.62</v>
+      </c>
+      <c r="C42" t="n">
+        <v>35601.34</v>
+      </c>
+      <c r="D42" t="n">
+        <v>35587.07</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40597.29</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40594.45</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40604.4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>42585.48</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40598.85</v>
+      </c>
+      <c r="J42" t="n">
+        <v>43102.11</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40100.15</v>
+      </c>
+      <c r="L42" t="n">
+        <v>42603.06</v>
+      </c>
+      <c r="M42" t="n">
         <v>42095.26</v>
-      </c>
-      <c r="C42" t="n">
-        <v>36587.37</v>
-      </c>
-      <c r="D42" t="n">
-        <v>36911.34</v>
-      </c>
-      <c r="E42" t="n">
-        <v>36606.32</v>
-      </c>
-      <c r="F42" t="n">
-        <v>37893.01</v>
-      </c>
-      <c r="G42" t="n">
-        <v>40893.22</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2225,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>80197.7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>80186.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>78542.13</v>
+      </c>
+      <c r="E43" t="n">
+        <v>80972.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>82094.33</v>
+      </c>
+      <c r="G43" t="n">
+        <v>80111.47</v>
+      </c>
+      <c r="H43" t="n">
+        <v>80092.84</v>
+      </c>
+      <c r="I43" t="n">
+        <v>80116.05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>80099.52</v>
+      </c>
+      <c r="K43" t="n">
+        <v>80091.89999999999</v>
+      </c>
+      <c r="L43" t="n">
+        <v>80118.25</v>
+      </c>
+      <c r="M43" t="n">
         <v>80094.3</v>
-      </c>
-      <c r="C43" t="n">
-        <v>80091.47</v>
-      </c>
-      <c r="D43" t="n">
-        <v>80815.89</v>
-      </c>
-      <c r="E43" t="n">
-        <v>78266.27</v>
-      </c>
-      <c r="F43" t="n">
-        <v>78272.50999999999</v>
-      </c>
-      <c r="G43" t="n">
-        <v>78246.55</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +2268,40 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>56674.56</v>
+      </c>
+      <c r="C44" t="n">
+        <v>56675.38</v>
+      </c>
+      <c r="D44" t="n">
+        <v>53289.91</v>
+      </c>
+      <c r="E44" t="n">
+        <v>52330.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>56549.93</v>
+      </c>
+      <c r="G44" t="n">
+        <v>57194.26</v>
+      </c>
+      <c r="H44" t="n">
+        <v>57332.25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>57341.02</v>
+      </c>
+      <c r="J44" t="n">
+        <v>57341.81</v>
+      </c>
+      <c r="K44" t="n">
+        <v>57331.42</v>
+      </c>
+      <c r="L44" t="n">
+        <v>57329.46</v>
+      </c>
+      <c r="M44" t="n">
         <v>55656.41</v>
-      </c>
-      <c r="C44" t="n">
-        <v>52664.68</v>
-      </c>
-      <c r="D44" t="n">
-        <v>53128.11</v>
-      </c>
-      <c r="E44" t="n">
-        <v>53276.45</v>
-      </c>
-      <c r="F44" t="n">
-        <v>52610</v>
-      </c>
-      <c r="G44" t="n">
-        <v>57333.13</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +2311,40 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>223662.49</v>
+      </c>
+      <c r="C45" t="n">
+        <v>223571.26</v>
+      </c>
+      <c r="D45" t="n">
+        <v>202152.05</v>
+      </c>
+      <c r="E45" t="n">
+        <v>194262.67</v>
+      </c>
+      <c r="F45" t="n">
+        <v>194194.32</v>
+      </c>
+      <c r="G45" t="n">
+        <v>194249.15</v>
+      </c>
+      <c r="H45" t="n">
+        <v>191440.28</v>
+      </c>
+      <c r="I45" t="n">
+        <v>191498.95</v>
+      </c>
+      <c r="J45" t="n">
+        <v>191440.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>191470.62</v>
+      </c>
+      <c r="L45" t="n">
+        <v>175690.2</v>
+      </c>
+      <c r="M45" t="n">
         <v>175682.74</v>
-      </c>
-      <c r="C45" t="n">
-        <v>175666.93</v>
-      </c>
-      <c r="D45" t="n">
-        <v>177159.82</v>
-      </c>
-      <c r="E45" t="n">
-        <v>175654.38</v>
-      </c>
-      <c r="F45" t="n">
-        <v>185365.53</v>
-      </c>
-      <c r="G45" t="n">
-        <v>188156.26</v>
       </c>
     </row>
     <row r="46">
@@ -1572,147 +2354,305 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>241929.54</v>
+      </c>
+      <c r="C46" t="n">
+        <v>242001.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>236713.63</v>
+      </c>
+      <c r="E46" t="n">
+        <v>248116.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>248093.21</v>
+      </c>
+      <c r="G46" t="n">
+        <v>246877.39</v>
+      </c>
+      <c r="H46" t="n">
+        <v>247971.96</v>
+      </c>
+      <c r="I46" t="n">
+        <v>247297.04</v>
+      </c>
+      <c r="J46" t="n">
+        <v>248111.12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>248065.77</v>
+      </c>
+      <c r="L46" t="n">
+        <v>287838.62</v>
+      </c>
+      <c r="M46" t="n">
         <v>320154.14</v>
-      </c>
-      <c r="C46" t="n">
-        <v>320082.57</v>
-      </c>
-      <c r="D46" t="n">
-        <v>322810.14</v>
-      </c>
-      <c r="E46" t="n">
-        <v>320059.51</v>
-      </c>
-      <c r="F46" t="n">
-        <v>320075.71</v>
-      </c>
-      <c r="G46" t="n">
-        <v>320100.11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>176065.42</v>
+        <v>603943.27</v>
       </c>
       <c r="C47" t="n">
-        <v>176195.9</v>
+        <v>660221.95</v>
       </c>
       <c r="D47" t="n">
-        <v>177733.14</v>
-      </c>
-      <c r="E47" t="n">
-        <v>176019.77</v>
-      </c>
-      <c r="F47" t="n">
-        <v>176044.22</v>
-      </c>
-      <c r="G47" t="n">
-        <v>176047.88</v>
-      </c>
+        <v>653885.79</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30761.3</v>
+        <v>88367.8</v>
       </c>
       <c r="C48" t="n">
-        <v>30663.78</v>
+        <v>88426.83</v>
       </c>
       <c r="D48" t="n">
-        <v>30924.6</v>
+        <v>88300.14999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>30723.11</v>
+        <v>143223.89</v>
       </c>
       <c r="F48" t="n">
-        <v>30671.54</v>
+        <v>143144.05</v>
       </c>
       <c r="G48" t="n">
-        <v>30693.97</v>
+        <v>152818.26</v>
+      </c>
+      <c r="H48" t="n">
+        <v>152811.07</v>
+      </c>
+      <c r="I48" t="n">
+        <v>176061.66</v>
+      </c>
+      <c r="J48" t="n">
+        <v>176178.6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>176013.09</v>
+      </c>
+      <c r="L48" t="n">
+        <v>175995.13</v>
+      </c>
+      <c r="M48" t="n">
+        <v>176065.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>27185.39</v>
+        <v>30657.53</v>
       </c>
       <c r="C49" t="n">
-        <v>27184.8</v>
+        <v>30750.72</v>
       </c>
       <c r="D49" t="n">
-        <v>27416.29</v>
+        <v>30736.57</v>
       </c>
       <c r="E49" t="n">
-        <v>27182.58</v>
+        <v>30687.55</v>
       </c>
       <c r="F49" t="n">
-        <v>27187.71</v>
+        <v>30749.25</v>
       </c>
       <c r="G49" t="n">
-        <v>27938.18</v>
+        <v>30727.94</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30745.96</v>
+      </c>
+      <c r="I49" t="n">
+        <v>30682.43</v>
+      </c>
+      <c r="J49" t="n">
+        <v>30708.22</v>
+      </c>
+      <c r="K49" t="n">
+        <v>30758.08</v>
+      </c>
+      <c r="L49" t="n">
+        <v>30690.31</v>
+      </c>
+      <c r="M49" t="n">
+        <v>30761.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100428.13</v>
+        <v>25084.87</v>
       </c>
       <c r="C50" t="n">
-        <v>99061.09</v>
+        <v>25868.73</v>
       </c>
       <c r="D50" t="n">
-        <v>99422.36</v>
+        <v>25869.74</v>
       </c>
       <c r="E50" t="n">
-        <v>96702.36</v>
+        <v>25875.39</v>
       </c>
       <c r="F50" t="n">
-        <v>98209.28999999999</v>
+        <v>25877.38</v>
       </c>
       <c r="G50" t="n">
-        <v>99238.59</v>
+        <v>25867.95</v>
+      </c>
+      <c r="H50" t="n">
+        <v>25869.05</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25872.47</v>
+      </c>
+      <c r="J50" t="n">
+        <v>25868.14</v>
+      </c>
+      <c r="K50" t="n">
+        <v>25872.51</v>
+      </c>
+      <c r="L50" t="n">
+        <v>27179.35</v>
+      </c>
+      <c r="M50" t="n">
+        <v>27185.39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10957.58</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10959.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10946.96</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>113180.26</v>
+      </c>
+      <c r="C52" t="n">
+        <v>111905</v>
+      </c>
+      <c r="D52" t="n">
+        <v>113552.71</v>
+      </c>
+      <c r="E52" t="n">
+        <v>106915.47</v>
+      </c>
+      <c r="F52" t="n">
+        <v>106248.95</v>
+      </c>
+      <c r="G52" t="n">
+        <v>106552.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>106726.35</v>
+      </c>
+      <c r="I52" t="n">
+        <v>106498.85</v>
+      </c>
+      <c r="J52" t="n">
+        <v>105914.38</v>
+      </c>
+      <c r="K52" t="n">
+        <v>104420.99</v>
+      </c>
+      <c r="L52" t="n">
+        <v>101350.25</v>
+      </c>
+      <c r="M52" t="n">
+        <v>100428.13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B53" t="n">
+        <v>5545832.83</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4364294.97</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5564082.71</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5025027.29</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4993700.86</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5007948.71</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5016138.37</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5005445.99</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4977976.06</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4907786.72</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4864811.81</v>
+      </c>
+      <c r="M53" t="n">
         <v>4820550.25</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4754932.36</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4772273.19</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4641713.07</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4714045.76</v>
-      </c>
-      <c r="G51" t="n">
-        <v>4763452.09</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78476.92</v>
+        <v>73934.61</v>
       </c>
       <c r="C2" t="n">
-        <v>90812.03</v>
+        <v>74898.3</v>
       </c>
       <c r="D2" t="n">
-        <v>95588.87</v>
+        <v>75575.87</v>
       </c>
       <c r="E2" t="n">
-        <v>97865.92</v>
+        <v>72930.06</v>
       </c>
       <c r="F2" t="n">
-        <v>97886.47</v>
+        <v>74796.87</v>
       </c>
       <c r="G2" t="n">
-        <v>97872.66</v>
+        <v>74815.99000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>92724.05</v>
+        <v>74814.22</v>
       </c>
       <c r="I2" t="n">
-        <v>80950.35000000001</v>
+        <v>74818.95</v>
       </c>
       <c r="J2" t="n">
-        <v>78388.97</v>
+        <v>95573.98</v>
       </c>
       <c r="K2" t="n">
-        <v>73928.33</v>
+        <v>99163.48</v>
       </c>
       <c r="L2" t="n">
-        <v>73932.32000000001</v>
+        <v>100050.68</v>
       </c>
       <c r="M2" t="n">
-        <v>73934.61</v>
+        <v>103381.79</v>
+      </c>
+      <c r="N2" t="n">
+        <v>103389.87</v>
+      </c>
+      <c r="O2" t="n">
+        <v>108990.38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>117050.32</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>122889.55</v>
+      </c>
+      <c r="R2" t="n">
+        <v>130269.63</v>
+      </c>
+      <c r="S2" t="n">
+        <v>132762.87</v>
+      </c>
+      <c r="T2" t="n">
+        <v>132055.91</v>
+      </c>
+      <c r="U2" t="n">
+        <v>127409.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>138426.27</v>
+      </c>
+      <c r="W2" t="n">
+        <v>149504.53</v>
+      </c>
+      <c r="X2" t="n">
+        <v>161181.09</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>156621.34</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>136428.52</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>130387.22</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164475.4</v>
+        <v>149252.95</v>
       </c>
       <c r="C3" t="n">
-        <v>173984.09</v>
+        <v>147443.36</v>
       </c>
       <c r="D3" t="n">
-        <v>173991.51</v>
+        <v>148738.39</v>
       </c>
       <c r="E3" t="n">
-        <v>184348.47</v>
+        <v>143507.53</v>
       </c>
       <c r="F3" t="n">
-        <v>177195.86</v>
+        <v>143453</v>
       </c>
       <c r="G3" t="n">
-        <v>175301</v>
+        <v>149547.89</v>
       </c>
       <c r="H3" t="n">
-        <v>167277.79</v>
+        <v>149525.57</v>
       </c>
       <c r="I3" t="n">
-        <v>167265.25</v>
+        <v>147799.13</v>
       </c>
       <c r="J3" t="n">
-        <v>173696.6</v>
+        <v>157174.64</v>
       </c>
       <c r="K3" t="n">
-        <v>169862.78</v>
+        <v>158889.75</v>
       </c>
       <c r="L3" t="n">
-        <v>173529.32</v>
+        <v>153285.43</v>
       </c>
       <c r="M3" t="n">
-        <v>149252.95</v>
+        <v>154101.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>158646.56</v>
+      </c>
+      <c r="O3" t="n">
+        <v>158617.37</v>
+      </c>
+      <c r="P3" t="n">
+        <v>169226.47</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>182786.48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>186969.65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>189220.84</v>
+      </c>
+      <c r="T3" t="n">
+        <v>180133.9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>183520.66</v>
+      </c>
+      <c r="V3" t="n">
+        <v>187430.27</v>
+      </c>
+      <c r="W3" t="n">
+        <v>191545.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>203200.19</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>196650.69</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>176516.63</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>172375.35</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26608.73</v>
+        <v>30000.39</v>
       </c>
       <c r="C4" t="n">
-        <v>27374.89</v>
+        <v>30003.06</v>
       </c>
       <c r="D4" t="n">
-        <v>29811.14</v>
+        <v>30236.68</v>
       </c>
       <c r="E4" t="n">
-        <v>31018.58</v>
+        <v>31497.71</v>
       </c>
       <c r="F4" t="n">
-        <v>33007.63</v>
+        <v>31500.01</v>
       </c>
       <c r="G4" t="n">
-        <v>33042.02</v>
+        <v>31503.87</v>
       </c>
       <c r="H4" t="n">
-        <v>33008.99</v>
+        <v>31504.62</v>
       </c>
       <c r="I4" t="n">
-        <v>33010.89</v>
+        <v>33369.41</v>
       </c>
       <c r="J4" t="n">
-        <v>33072.2</v>
+        <v>35246.19</v>
       </c>
       <c r="K4" t="n">
-        <v>33022.19</v>
+        <v>35241.14</v>
       </c>
       <c r="L4" t="n">
-        <v>30001.94</v>
+        <v>35245.36</v>
       </c>
       <c r="M4" t="n">
-        <v>30000.39</v>
+        <v>37685.96</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37675.85</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37590.87</v>
+      </c>
+      <c r="P4" t="n">
+        <v>38291.97</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>42845.69</v>
+      </c>
+      <c r="R4" t="n">
+        <v>44083.68</v>
+      </c>
+      <c r="S4" t="n">
+        <v>44077.94</v>
+      </c>
+      <c r="T4" t="n">
+        <v>44082.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>34478.94</v>
+      </c>
+      <c r="V4" t="n">
+        <v>39596.63</v>
+      </c>
+      <c r="W4" t="n">
+        <v>36399.51</v>
+      </c>
+      <c r="X4" t="n">
+        <v>39069.72</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>39070.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>39076.49</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>39083.21</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34819.78</v>
+        <v>37384.27</v>
       </c>
       <c r="C5" t="n">
-        <v>35876.99</v>
+        <v>33316.54</v>
       </c>
       <c r="D5" t="n">
-        <v>36461.29</v>
+        <v>32945.69</v>
       </c>
       <c r="E5" t="n">
-        <v>36906.06</v>
+        <v>32667.67</v>
       </c>
       <c r="F5" t="n">
-        <v>36921.63</v>
+        <v>33237.15</v>
       </c>
       <c r="G5" t="n">
-        <v>36911.15</v>
+        <v>33807.55</v>
       </c>
       <c r="H5" t="n">
-        <v>36911.92</v>
+        <v>36431.93</v>
       </c>
       <c r="I5" t="n">
-        <v>36915.87</v>
+        <v>35987.36</v>
       </c>
       <c r="J5" t="n">
-        <v>36912.18</v>
+        <v>42461.94</v>
       </c>
       <c r="K5" t="n">
-        <v>37365.21</v>
+        <v>42457.24</v>
       </c>
       <c r="L5" t="n">
-        <v>37365.24</v>
+        <v>44860.68</v>
       </c>
       <c r="M5" t="n">
-        <v>37384.27</v>
+        <v>49900.66</v>
+      </c>
+      <c r="N5" t="n">
+        <v>54152.36</v>
+      </c>
+      <c r="O5" t="n">
+        <v>59183.66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>60873.31</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>64071.27</v>
+      </c>
+      <c r="R5" t="n">
+        <v>65765.57000000001</v>
+      </c>
+      <c r="S5" t="n">
+        <v>70072.83</v>
+      </c>
+      <c r="T5" t="n">
+        <v>70846.94</v>
+      </c>
+      <c r="U5" t="n">
+        <v>73319.24000000001</v>
+      </c>
+      <c r="V5" t="n">
+        <v>76682.56</v>
+      </c>
+      <c r="W5" t="n">
+        <v>78178.53999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>81786.7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>81781.89999999999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>76346.45</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>76288.85000000001</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85824.98</v>
+        <v>85799.02</v>
       </c>
       <c r="C6" t="n">
-        <v>85803.85000000001</v>
+        <v>85794.69</v>
       </c>
       <c r="D6" t="n">
-        <v>85800.02</v>
+        <v>86544.92</v>
       </c>
       <c r="E6" t="n">
-        <v>85792.33</v>
+        <v>85813.02</v>
       </c>
       <c r="F6" t="n">
-        <v>85789.78</v>
+        <v>85827.23</v>
       </c>
       <c r="G6" t="n">
-        <v>85818.61</v>
+        <v>85817.52</v>
       </c>
       <c r="H6" t="n">
-        <v>85837.92</v>
+        <v>85812.78999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>85808.31</v>
+        <v>85806.98</v>
       </c>
       <c r="J6" t="n">
-        <v>85821.95</v>
+        <v>85810.96000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>85797.71000000001</v>
+        <v>85789.08</v>
       </c>
       <c r="L6" t="n">
-        <v>85790.00999999999</v>
+        <v>98041.03999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>85799.02</v>
+        <v>98057.72</v>
+      </c>
+      <c r="N6" t="n">
+        <v>98031.02</v>
+      </c>
+      <c r="O6" t="n">
+        <v>98029.59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>98067.78</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>98067.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>102981.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>107439.59</v>
+      </c>
+      <c r="T6" t="n">
+        <v>107791.39</v>
+      </c>
+      <c r="U6" t="n">
+        <v>107430</v>
+      </c>
+      <c r="V6" t="n">
+        <v>116557.81</v>
+      </c>
+      <c r="W6" t="n">
+        <v>125656.98</v>
+      </c>
+      <c r="X6" t="n">
+        <v>129850.65</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>126713.78</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>126703.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>125717.35</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>194733.06</v>
+        <v>162370.89</v>
       </c>
       <c r="C7" t="n">
-        <v>194718.8</v>
+        <v>153452.89</v>
       </c>
       <c r="D7" t="n">
-        <v>194727.22</v>
+        <v>143793.68</v>
       </c>
       <c r="E7" t="n">
-        <v>194822.08</v>
+        <v>139070.05</v>
       </c>
       <c r="F7" t="n">
-        <v>194744.21</v>
+        <v>139059.97</v>
       </c>
       <c r="G7" t="n">
-        <v>194774.08</v>
+        <v>138995.46</v>
       </c>
       <c r="H7" t="n">
-        <v>194792.44</v>
+        <v>131955.45</v>
       </c>
       <c r="I7" t="n">
-        <v>192391.88</v>
+        <v>131979.67</v>
       </c>
       <c r="J7" t="n">
-        <v>182196.28</v>
+        <v>131923.18</v>
       </c>
       <c r="K7" t="n">
-        <v>173836.31</v>
+        <v>131918.9</v>
       </c>
       <c r="L7" t="n">
-        <v>162313.31</v>
+        <v>131955.33</v>
       </c>
       <c r="M7" t="n">
-        <v>162370.89</v>
+        <v>131913.83</v>
+      </c>
+      <c r="N7" t="n">
+        <v>131919.77</v>
+      </c>
+      <c r="O7" t="n">
+        <v>131908.95</v>
+      </c>
+      <c r="P7" t="n">
+        <v>130094.41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>130115.27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>130050.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>130112.06</v>
+      </c>
+      <c r="T7" t="n">
+        <v>124624.03</v>
+      </c>
+      <c r="U7" t="n">
+        <v>124218.84</v>
+      </c>
+      <c r="V7" t="n">
+        <v>124156.45</v>
+      </c>
+      <c r="W7" t="n">
+        <v>124178.84</v>
+      </c>
+      <c r="X7" t="n">
+        <v>124157.24</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>124222.36</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>124206.17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>124179.55</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95157.3</v>
+        <v>95152.7</v>
       </c>
       <c r="C8" t="n">
-        <v>95138.52</v>
+        <v>90075.67</v>
       </c>
       <c r="D8" t="n">
-        <v>95115.16</v>
+        <v>90841.60000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>95143.82000000001</v>
+        <v>82407.89</v>
       </c>
       <c r="F8" t="n">
-        <v>95139.57000000001</v>
+        <v>82415.34</v>
       </c>
       <c r="G8" t="n">
-        <v>95158.86</v>
+        <v>91834.55</v>
       </c>
       <c r="H8" t="n">
-        <v>95120</v>
+        <v>91861.83</v>
       </c>
       <c r="I8" t="n">
-        <v>95116.53999999999</v>
+        <v>91856.07000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>95122.09</v>
+        <v>91825.28</v>
       </c>
       <c r="K8" t="n">
-        <v>95121.7</v>
+        <v>91835.28999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>95157.57000000001</v>
+        <v>91846.39</v>
       </c>
       <c r="M8" t="n">
-        <v>95152.7</v>
+        <v>86674.89999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>86639.81</v>
+      </c>
+      <c r="O8" t="n">
+        <v>86669.45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>86682.45</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>86661.24000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>86657.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>90397.98</v>
+      </c>
+      <c r="T8" t="n">
+        <v>90705.11</v>
+      </c>
+      <c r="U8" t="n">
+        <v>90415.12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>82842.17</v>
+      </c>
+      <c r="W8" t="n">
+        <v>86203.61</v>
+      </c>
+      <c r="X8" t="n">
+        <v>86207.53999999999</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>86188.58</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>86202.71000000001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>86219.53</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57183.19</v>
+        <v>53627.24</v>
       </c>
       <c r="C9" t="n">
-        <v>61249.9</v>
+        <v>53624.79</v>
       </c>
       <c r="D9" t="n">
-        <v>58454.46</v>
+        <v>54086.8</v>
       </c>
       <c r="E9" t="n">
-        <v>60753.6</v>
+        <v>53612.51</v>
       </c>
       <c r="F9" t="n">
-        <v>60749.04</v>
+        <v>53620.22</v>
       </c>
       <c r="G9" t="n">
-        <v>64307.81</v>
+        <v>69818.49000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>64318.15</v>
+        <v>69794.17999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>64317.18</v>
+        <v>69805.37</v>
       </c>
       <c r="J9" t="n">
-        <v>64301.72</v>
+        <v>69824.85000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>64305.41</v>
+        <v>72544.2</v>
       </c>
       <c r="L9" t="n">
-        <v>61677.19</v>
+        <v>72570.05</v>
       </c>
       <c r="M9" t="n">
-        <v>53627.24</v>
+        <v>68254.14999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>63908.71</v>
+      </c>
+      <c r="O9" t="n">
+        <v>63918.75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>62590.23</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>58482.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>58485.13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>62923.88</v>
+      </c>
+      <c r="T9" t="n">
+        <v>63132.82</v>
+      </c>
+      <c r="U9" t="n">
+        <v>62914.13</v>
+      </c>
+      <c r="V9" t="n">
+        <v>62918.38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>71786.13</v>
+      </c>
+      <c r="X9" t="n">
+        <v>73883.72</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>73882.03</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>73887.7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>73888.98</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1270.11</v>
+        <v>1735.94</v>
       </c>
       <c r="C10" t="n">
-        <v>1270.69</v>
+        <v>1731.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1265.86</v>
+        <v>1750.63</v>
       </c>
       <c r="E10" t="n">
-        <v>1268.36</v>
+        <v>1735.09</v>
       </c>
       <c r="F10" t="n">
-        <v>1269.9</v>
+        <v>1733.87</v>
       </c>
       <c r="G10" t="n">
-        <v>2436.69</v>
+        <v>1735.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2434.3</v>
+        <v>1733.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2438.3</v>
+        <v>1731.95</v>
       </c>
       <c r="J10" t="n">
-        <v>2440.18</v>
+        <v>1733.76</v>
       </c>
       <c r="K10" t="n">
-        <v>1733.88</v>
+        <v>2090.01</v>
       </c>
       <c r="L10" t="n">
-        <v>1737.05</v>
+        <v>2091.71</v>
       </c>
       <c r="M10" t="n">
-        <v>1735.94</v>
+        <v>2497.52</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2497.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2497.63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2502.78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2497.28</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2503.48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2502.9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2511.88</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2496.82</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2500.15</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2498.05</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2160.9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2163.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2886.41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2884.42</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281306.99</v>
+        <v>281191.59</v>
       </c>
       <c r="C11" t="n">
-        <v>281236.14</v>
+        <v>281121.56</v>
       </c>
       <c r="D11" t="n">
-        <v>281135.64</v>
+        <v>283552.45</v>
       </c>
       <c r="E11" t="n">
-        <v>281025.15</v>
+        <v>281165.72</v>
       </c>
       <c r="F11" t="n">
-        <v>281002.56</v>
+        <v>282079.9</v>
       </c>
       <c r="G11" t="n">
-        <v>281142.54</v>
+        <v>282151.36</v>
       </c>
       <c r="H11" t="n">
-        <v>281037.31</v>
+        <v>282071.82</v>
       </c>
       <c r="I11" t="n">
-        <v>281200.82</v>
+        <v>282331.99</v>
       </c>
       <c r="J11" t="n">
-        <v>281087.59</v>
+        <v>282095.21</v>
       </c>
       <c r="K11" t="n">
-        <v>280994.75</v>
+        <v>282305.77</v>
       </c>
       <c r="L11" t="n">
-        <v>281112.1</v>
+        <v>282278.72</v>
       </c>
       <c r="M11" t="n">
-        <v>281191.59</v>
+        <v>282266.25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>282305.29</v>
+      </c>
+      <c r="O11" t="n">
+        <v>282108.65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>282259.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>223808.81</v>
+      </c>
+      <c r="R11" t="n">
+        <v>223698.74</v>
+      </c>
+      <c r="S11" t="n">
+        <v>223887.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>194286.29</v>
+      </c>
+      <c r="U11" t="n">
+        <v>193550.75</v>
+      </c>
+      <c r="V11" t="n">
+        <v>193400.22</v>
+      </c>
+      <c r="W11" t="n">
+        <v>193527.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>172230.72</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>157696.26</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>157569.85</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>157566.01</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8835.940000000001</v>
+        <v>1052.96</v>
       </c>
       <c r="C12" t="n">
-        <v>8836.120000000001</v>
+        <v>1053.02</v>
       </c>
       <c r="D12" t="n">
-        <v>8835.92</v>
+        <v>1062.27</v>
       </c>
       <c r="E12" t="n">
-        <v>8834.43</v>
+        <v>1053.02</v>
       </c>
       <c r="F12" t="n">
-        <v>8850.950000000001</v>
+        <v>1052.81</v>
       </c>
       <c r="G12" t="n">
-        <v>8850.77</v>
+        <v>1053.2</v>
       </c>
       <c r="H12" t="n">
-        <v>8848.879999999999</v>
+        <v>1053.05</v>
       </c>
       <c r="I12" t="n">
-        <v>8850.35</v>
+        <v>1053.05</v>
       </c>
       <c r="J12" t="n">
-        <v>8811.620000000001</v>
+        <v>1052.83</v>
       </c>
       <c r="K12" t="n">
-        <v>1053.21</v>
+        <v>1053.11</v>
       </c>
       <c r="L12" t="n">
-        <v>1053.09</v>
+        <v>5398.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1052.96</v>
+        <v>5398.53</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5398.23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1787.84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1693.88</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1693.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1694.01</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1694.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1700.09</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1693.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1693.89</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1694.31</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1694.28</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1694.04</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1694.07</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1613.67</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>451.23</v>
+        <v>450.64</v>
       </c>
       <c r="C13" t="n">
-        <v>450.83</v>
+        <v>451.19</v>
       </c>
       <c r="D13" t="n">
-        <v>450.85</v>
+        <v>455.2</v>
       </c>
       <c r="E13" t="n">
-        <v>450.67</v>
+        <v>450.78</v>
       </c>
       <c r="F13" t="n">
-        <v>451.35</v>
+        <v>451.03</v>
       </c>
       <c r="G13" t="n">
-        <v>450.7</v>
+        <v>450.82</v>
       </c>
       <c r="H13" t="n">
+        <v>451.11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>451.09</v>
+      </c>
+      <c r="J13" t="n">
+        <v>450.74</v>
+      </c>
+      <c r="K13" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="L13" t="n">
+        <v>450.59</v>
+      </c>
+      <c r="M13" t="n">
+        <v>451.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>451.01</v>
+      </c>
+      <c r="O13" t="n">
+        <v>451.07</v>
+      </c>
+      <c r="P13" t="n">
+        <v>450.77</v>
+      </c>
+      <c r="Q13" t="n">
         <v>450.9</v>
       </c>
-      <c r="I13" t="n">
-        <v>450.91</v>
-      </c>
-      <c r="J13" t="n">
-        <v>451.21</v>
-      </c>
-      <c r="K13" t="n">
-        <v>451.26</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="R13" t="n">
+        <v>451.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>451.2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>452.45</v>
+      </c>
+      <c r="U13" t="n">
+        <v>450.73</v>
+      </c>
+      <c r="V13" t="n">
         <v>451.09</v>
       </c>
-      <c r="M13" t="n">
-        <v>450.64</v>
+      <c r="W13" t="n">
+        <v>451.3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>450.94</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>450.97</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>451.32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>450.72</v>
       </c>
     </row>
     <row r="14">
@@ -1018,40 +1592,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3894.07</v>
+        <v>3847.12</v>
       </c>
       <c r="C14" t="n">
-        <v>3894.72</v>
+        <v>3850.72</v>
       </c>
       <c r="D14" t="n">
-        <v>3893.79</v>
+        <v>3883.29</v>
       </c>
       <c r="E14" t="n">
-        <v>3894.98</v>
+        <v>3847.94</v>
       </c>
       <c r="F14" t="n">
-        <v>3892.82</v>
+        <v>3847.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3894.24</v>
+        <v>3850.04</v>
       </c>
       <c r="H14" t="n">
-        <v>3891.89</v>
+        <v>3849.44</v>
       </c>
       <c r="I14" t="n">
-        <v>3892.58</v>
+        <v>3847.94</v>
       </c>
       <c r="J14" t="n">
-        <v>3893.85</v>
+        <v>3850.16</v>
       </c>
       <c r="K14" t="n">
-        <v>3894.88</v>
+        <v>3848.11</v>
       </c>
       <c r="L14" t="n">
-        <v>3890.85</v>
+        <v>3849.54</v>
       </c>
       <c r="M14" t="n">
-        <v>3847.12</v>
+        <v>3849.12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3848.36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3850.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3848.69</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3850.49</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3849.44</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3850.17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3861.64</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3850.59</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3850.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3848</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3847.3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3847.38</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3846.65</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3848.53</v>
       </c>
     </row>
     <row r="15">
@@ -1061,40 +1677,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143087.38</v>
+        <v>147814.63</v>
       </c>
       <c r="C15" t="n">
-        <v>148848.48</v>
+        <v>131188.25</v>
       </c>
       <c r="D15" t="n">
-        <v>142381.02</v>
+        <v>125989.17</v>
       </c>
       <c r="E15" t="n">
-        <v>149272.49</v>
+        <v>122491.84</v>
       </c>
       <c r="F15" t="n">
-        <v>154776.79</v>
+        <v>124277.01</v>
       </c>
       <c r="G15" t="n">
-        <v>154110.96</v>
+        <v>127540.67</v>
       </c>
       <c r="H15" t="n">
-        <v>155110.16</v>
+        <v>128928.75</v>
       </c>
       <c r="I15" t="n">
-        <v>155096.35</v>
+        <v>127341.1</v>
       </c>
       <c r="J15" t="n">
-        <v>152178.24</v>
+        <v>120262.72</v>
       </c>
       <c r="K15" t="n">
-        <v>152426.8</v>
+        <v>120281.32</v>
       </c>
       <c r="L15" t="n">
-        <v>147818.93</v>
+        <v>119091.92</v>
       </c>
       <c r="M15" t="n">
-        <v>147814.63</v>
+        <v>127898.65</v>
+      </c>
+      <c r="N15" t="n">
+        <v>128671.14</v>
+      </c>
+      <c r="O15" t="n">
+        <v>134257.8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>139494.28</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>168038.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>180587.86</v>
+      </c>
+      <c r="S15" t="n">
+        <v>181425.95</v>
+      </c>
+      <c r="T15" t="n">
+        <v>172100.03</v>
+      </c>
+      <c r="U15" t="n">
+        <v>167798.16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>173455.48</v>
+      </c>
+      <c r="W15" t="n">
+        <v>174472.36</v>
+      </c>
+      <c r="X15" t="n">
+        <v>179091.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>175629.94</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>187366.81</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>169305.15</v>
       </c>
     </row>
     <row r="16">
@@ -1104,40 +1762,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18210.62</v>
+        <v>23383.09</v>
       </c>
       <c r="C16" t="n">
-        <v>19324.04</v>
+        <v>23392.01</v>
       </c>
       <c r="D16" t="n">
-        <v>19316.33</v>
+        <v>23600.56</v>
       </c>
       <c r="E16" t="n">
-        <v>20123.06</v>
+        <v>23386.14</v>
       </c>
       <c r="F16" t="n">
-        <v>23395.89</v>
+        <v>23385.74</v>
       </c>
       <c r="G16" t="n">
-        <v>23395.53</v>
+        <v>23398.04</v>
       </c>
       <c r="H16" t="n">
-        <v>23393.13</v>
+        <v>23393.78</v>
       </c>
       <c r="I16" t="n">
-        <v>23384.28</v>
+        <v>24987.42</v>
       </c>
       <c r="J16" t="n">
-        <v>23387.97</v>
+        <v>25418.01</v>
       </c>
       <c r="K16" t="n">
-        <v>23389.81</v>
+        <v>28106.5</v>
       </c>
       <c r="L16" t="n">
-        <v>23384.68</v>
+        <v>28115.89</v>
       </c>
       <c r="M16" t="n">
-        <v>23383.09</v>
+        <v>28615.41</v>
+      </c>
+      <c r="N16" t="n">
+        <v>29063.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>29507.87</v>
+      </c>
+      <c r="P16" t="n">
+        <v>29931.23</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>34308.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>35512.17</v>
+      </c>
+      <c r="S16" t="n">
+        <v>37408.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>37273.13</v>
+      </c>
+      <c r="U16" t="n">
+        <v>35759.34</v>
+      </c>
+      <c r="V16" t="n">
+        <v>37289.18</v>
+      </c>
+      <c r="W16" t="n">
+        <v>38402.38</v>
+      </c>
+      <c r="X16" t="n">
+        <v>42676.76</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>42254.12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>44591.11</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>46830.77</v>
       </c>
     </row>
     <row r="17">
@@ -1147,40 +1847,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29100.57</v>
+        <v>32502.87</v>
       </c>
       <c r="C17" t="n">
-        <v>29065.99</v>
+        <v>32525.85</v>
       </c>
       <c r="D17" t="n">
-        <v>30769.35</v>
+        <v>32805.17</v>
       </c>
       <c r="E17" t="n">
-        <v>30766.95</v>
+        <v>32518.45</v>
       </c>
       <c r="F17" t="n">
-        <v>32526.22</v>
+        <v>32520.81</v>
       </c>
       <c r="G17" t="n">
-        <v>32536.97</v>
+        <v>32534.12</v>
       </c>
       <c r="H17" t="n">
-        <v>32508.49</v>
+        <v>32525.06</v>
       </c>
       <c r="I17" t="n">
-        <v>32536.88</v>
+        <v>33778.1</v>
       </c>
       <c r="J17" t="n">
-        <v>32535.98</v>
+        <v>33759.08</v>
       </c>
       <c r="K17" t="n">
-        <v>32525.51</v>
+        <v>33787.88</v>
       </c>
       <c r="L17" t="n">
-        <v>32530.4</v>
+        <v>33792.31</v>
       </c>
       <c r="M17" t="n">
-        <v>32502.87</v>
+        <v>33780.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>33760.86</v>
+      </c>
+      <c r="O17" t="n">
+        <v>33777.93</v>
+      </c>
+      <c r="P17" t="n">
+        <v>33765.6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>30668.78</v>
+      </c>
+      <c r="R17" t="n">
+        <v>30691.11</v>
+      </c>
+      <c r="S17" t="n">
+        <v>30676.26</v>
+      </c>
+      <c r="T17" t="n">
+        <v>30776.71</v>
+      </c>
+      <c r="U17" t="n">
+        <v>30689.53</v>
+      </c>
+      <c r="V17" t="n">
+        <v>30663.65</v>
+      </c>
+      <c r="W17" t="n">
+        <v>30681.67</v>
+      </c>
+      <c r="X17" t="n">
+        <v>30687.12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>30665.55</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29136.07</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29135.84</v>
       </c>
     </row>
     <row r="18">
@@ -1190,40 +1932,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460670.55</v>
+        <v>426332.79</v>
       </c>
       <c r="C18" t="n">
-        <v>455957.45</v>
+        <v>424362.95</v>
       </c>
       <c r="D18" t="n">
-        <v>454279.37</v>
+        <v>424911.26</v>
       </c>
       <c r="E18" t="n">
-        <v>450508.46</v>
+        <v>418751.56</v>
       </c>
       <c r="F18" t="n">
-        <v>447976.29</v>
+        <v>416689.47</v>
       </c>
       <c r="G18" t="n">
-        <v>444993.43</v>
+        <v>414818.97</v>
       </c>
       <c r="H18" t="n">
-        <v>442222.74</v>
+        <v>414798.05</v>
       </c>
       <c r="I18" t="n">
-        <v>438885.51</v>
+        <v>417633.33</v>
       </c>
       <c r="J18" t="n">
-        <v>433477.91</v>
+        <v>417541.83</v>
       </c>
       <c r="K18" t="n">
-        <v>430966.86</v>
+        <v>416766.2</v>
       </c>
       <c r="L18" t="n">
-        <v>430132.69</v>
+        <v>414929.46</v>
       </c>
       <c r="M18" t="n">
-        <v>426332.79</v>
+        <v>414606.29</v>
+      </c>
+      <c r="N18" t="n">
+        <v>414661.06</v>
+      </c>
+      <c r="O18" t="n">
+        <v>411296.18</v>
+      </c>
+      <c r="P18" t="n">
+        <v>408932.03</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>404078.07</v>
+      </c>
+      <c r="R18" t="n">
+        <v>399313.08</v>
+      </c>
+      <c r="S18" t="n">
+        <v>394333.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>390153.42</v>
+      </c>
+      <c r="U18" t="n">
+        <v>386042.27</v>
+      </c>
+      <c r="V18" t="n">
+        <v>383799.22</v>
+      </c>
+      <c r="W18" t="n">
+        <v>383829.53</v>
+      </c>
+      <c r="X18" t="n">
+        <v>383957.71</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>383993.72</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>383953.81</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>383245.78</v>
       </c>
     </row>
     <row r="19">
@@ -1232,21 +2016,83 @@
           <t>Compass Crecimiento II</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>270.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>270.54</v>
+      </c>
+      <c r="D19" t="n">
+        <v>271.75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>270.18</v>
+      </c>
+      <c r="F19" t="n">
+        <v>270.49</v>
+      </c>
+      <c r="G19" t="n">
+        <v>269.64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>269.52</v>
+      </c>
+      <c r="I19" t="n">
+        <v>269.65</v>
+      </c>
+      <c r="J19" t="n">
+        <v>269.36</v>
+      </c>
+      <c r="K19" t="n">
+        <v>270.45</v>
+      </c>
       <c r="L19" t="n">
-        <v>269.42</v>
+        <v>269.93</v>
       </c>
       <c r="M19" t="n">
-        <v>270.22</v>
+        <v>270.25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>269.64</v>
+      </c>
+      <c r="O19" t="n">
+        <v>270.53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>269.89</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>269.72</v>
+      </c>
+      <c r="R19" t="n">
+        <v>270.55</v>
+      </c>
+      <c r="S19" t="n">
+        <v>269.24</v>
+      </c>
+      <c r="T19" t="n">
+        <v>271.36</v>
+      </c>
+      <c r="U19" t="n">
+        <v>270.79</v>
+      </c>
+      <c r="V19" t="n">
+        <v>270.02</v>
+      </c>
+      <c r="W19" t="n">
+        <v>269.84</v>
+      </c>
+      <c r="X19" t="n">
+        <v>270.58</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>270.66</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>270.04</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>269.74</v>
       </c>
     </row>
     <row r="20">
@@ -1256,38 +2102,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299078.34</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>269489.02</v>
+      </c>
+      <c r="C20" t="n">
+        <v>269533.47</v>
+      </c>
       <c r="D20" t="n">
-        <v>299077.45</v>
+        <v>271906.74</v>
       </c>
       <c r="E20" t="n">
-        <v>299223.59</v>
+        <v>262525.64</v>
       </c>
       <c r="F20" t="n">
-        <v>287336.59</v>
+        <v>262533.81</v>
       </c>
       <c r="G20" t="n">
-        <v>287192.11</v>
+        <v>258595.28</v>
       </c>
       <c r="H20" t="n">
-        <v>283852.74</v>
+        <v>258589.61</v>
       </c>
       <c r="I20" t="n">
-        <v>287382.84</v>
+        <v>258616.68</v>
       </c>
       <c r="J20" t="n">
-        <v>287817.68</v>
+        <v>258522</v>
       </c>
       <c r="K20" t="n">
-        <v>276037.99</v>
+        <v>258588.23</v>
       </c>
       <c r="L20" t="n">
-        <v>276006.89</v>
+        <v>258543.02</v>
       </c>
       <c r="M20" t="n">
-        <v>269489.02</v>
+        <v>258525.29</v>
+      </c>
+      <c r="N20" t="n">
+        <v>258528.68</v>
+      </c>
+      <c r="O20" t="n">
+        <v>251991.61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>252057.73</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>252071.46</v>
+      </c>
+      <c r="R20" t="n">
+        <v>252066.97</v>
+      </c>
+      <c r="S20" t="n">
+        <v>252002.49</v>
+      </c>
+      <c r="T20" t="n">
+        <v>252867.32</v>
+      </c>
+      <c r="U20" t="n">
+        <v>247265.93</v>
+      </c>
+      <c r="V20" t="n">
+        <v>223177.86</v>
+      </c>
+      <c r="W20" t="n">
+        <v>223187.39</v>
+      </c>
+      <c r="X20" t="n">
+        <v>223179.66</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>223273.26</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>229264.71</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>229265.25</v>
       </c>
     </row>
     <row r="21">
@@ -1297,38 +2187,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104654.6</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>116637.72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>116637.84</v>
+      </c>
       <c r="D21" t="n">
-        <v>112184.64</v>
+        <v>117633.23</v>
       </c>
       <c r="E21" t="n">
-        <v>112156.55</v>
+        <v>110621.68</v>
       </c>
       <c r="F21" t="n">
-        <v>124038.56</v>
+        <v>110601.64</v>
       </c>
       <c r="G21" t="n">
-        <v>124076.53</v>
+        <v>114546.14</v>
       </c>
       <c r="H21" t="n">
-        <v>126145.4</v>
+        <v>111440.38</v>
       </c>
       <c r="I21" t="n">
-        <v>122636.93</v>
+        <v>111391.47</v>
       </c>
       <c r="J21" t="n">
-        <v>116656.91</v>
+        <v>111437.08</v>
       </c>
       <c r="K21" t="n">
-        <v>116627.74</v>
+        <v>111444.69</v>
       </c>
       <c r="L21" t="n">
-        <v>116650.44</v>
+        <v>111411.76</v>
       </c>
       <c r="M21" t="n">
-        <v>116637.72</v>
+        <v>111400.55</v>
+      </c>
+      <c r="N21" t="n">
+        <v>111438.13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>111409.98</v>
+      </c>
+      <c r="P21" t="n">
+        <v>111422.53</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>111402.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>111417.98</v>
+      </c>
+      <c r="S21" t="n">
+        <v>111416.78</v>
+      </c>
+      <c r="T21" t="n">
+        <v>111833.06</v>
+      </c>
+      <c r="U21" t="n">
+        <v>111431.23</v>
+      </c>
+      <c r="V21" t="n">
+        <v>111434.59</v>
+      </c>
+      <c r="W21" t="n">
+        <v>108214</v>
+      </c>
+      <c r="X21" t="n">
+        <v>108216.96</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>108198.44</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>113874.83</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>113864.5</v>
       </c>
     </row>
     <row r="22">
@@ -1338,38 +2272,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17825.12</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>17838.87</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17842.69</v>
+      </c>
       <c r="D22" t="n">
-        <v>17846.52</v>
+        <v>17987.85</v>
       </c>
       <c r="E22" t="n">
-        <v>17827.49</v>
+        <v>17846.94</v>
       </c>
       <c r="F22" t="n">
-        <v>17843.6</v>
+        <v>17848.18</v>
       </c>
       <c r="G22" t="n">
-        <v>17848</v>
+        <v>14114.01</v>
       </c>
       <c r="H22" t="n">
-        <v>17846.84</v>
+        <v>14100.6</v>
       </c>
       <c r="I22" t="n">
-        <v>17841.27</v>
+        <v>14103.79</v>
       </c>
       <c r="J22" t="n">
-        <v>17841.58</v>
+        <v>14102.31</v>
       </c>
       <c r="K22" t="n">
-        <v>17829.71</v>
+        <v>14110.01</v>
       </c>
       <c r="L22" t="n">
-        <v>17847.54</v>
+        <v>14093.32</v>
       </c>
       <c r="M22" t="n">
-        <v>17838.87</v>
+        <v>14116.3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14097.47</v>
+      </c>
+      <c r="O22" t="n">
+        <v>14109.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>14095.58</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>14103.46</v>
+      </c>
+      <c r="R22" t="n">
+        <v>14115.91</v>
+      </c>
+      <c r="S22" t="n">
+        <v>14099.85</v>
+      </c>
+      <c r="T22" t="n">
+        <v>14112.52</v>
+      </c>
+      <c r="U22" t="n">
+        <v>14116.62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>14572.78</v>
+      </c>
+      <c r="W22" t="n">
+        <v>14573.28</v>
+      </c>
+      <c r="X22" t="n">
+        <v>14559.3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11094.12</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12208.55</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12217.45</v>
       </c>
     </row>
     <row r="23">
@@ -1379,38 +2357,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85191.82000000001</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>64232.99</v>
+      </c>
+      <c r="C23" t="n">
+        <v>64246.5</v>
+      </c>
       <c r="D23" t="n">
-        <v>79633.19</v>
+        <v>63736.71</v>
       </c>
       <c r="E23" t="n">
-        <v>77412.09</v>
+        <v>63175.52</v>
       </c>
       <c r="F23" t="n">
-        <v>76010.74000000001</v>
+        <v>63197.38</v>
       </c>
       <c r="G23" t="n">
-        <v>72392.3</v>
+        <v>63203.52</v>
       </c>
       <c r="H23" t="n">
-        <v>72376.09</v>
+        <v>63213.08</v>
       </c>
       <c r="I23" t="n">
-        <v>72404.19</v>
+        <v>63175.96</v>
       </c>
       <c r="J23" t="n">
-        <v>68958.35000000001</v>
+        <v>63223.31</v>
       </c>
       <c r="K23" t="n">
-        <v>67497.62</v>
+        <v>65877.50999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>64281.25</v>
+        <v>71253.62</v>
       </c>
       <c r="M23" t="n">
-        <v>64232.99</v>
+        <v>71206.92</v>
+      </c>
+      <c r="N23" t="n">
+        <v>71243.19</v>
+      </c>
+      <c r="O23" t="n">
+        <v>71244.62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>71230.55</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>71203.64</v>
+      </c>
+      <c r="R23" t="n">
+        <v>71230.41</v>
+      </c>
+      <c r="S23" t="n">
+        <v>71219.48</v>
+      </c>
+      <c r="T23" t="n">
+        <v>71214.88</v>
+      </c>
+      <c r="U23" t="n">
+        <v>81681.21000000001</v>
+      </c>
+      <c r="V23" t="n">
+        <v>83788.06</v>
+      </c>
+      <c r="W23" t="n">
+        <v>83806.78</v>
+      </c>
+      <c r="X23" t="n">
+        <v>83836.3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>83802.64</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>84952.42</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>84637.23</v>
       </c>
     </row>
     <row r="24">
@@ -1420,38 +2442,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>236715.38</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>206394.71</v>
+      </c>
+      <c r="C24" t="n">
+        <v>206431.97</v>
+      </c>
       <c r="D24" t="n">
-        <v>233367.54</v>
+        <v>208173.87</v>
       </c>
       <c r="E24" t="n">
-        <v>229174.72</v>
+        <v>200452.14</v>
       </c>
       <c r="F24" t="n">
-        <v>215720.1</v>
+        <v>200413.74</v>
       </c>
       <c r="G24" t="n">
-        <v>206361.13</v>
+        <v>189217.37</v>
       </c>
       <c r="H24" t="n">
-        <v>206395.95</v>
+        <v>189211.23</v>
       </c>
       <c r="I24" t="n">
-        <v>206380.19</v>
+        <v>189230.43</v>
       </c>
       <c r="J24" t="n">
-        <v>206369.3</v>
+        <v>189239.88</v>
       </c>
       <c r="K24" t="n">
-        <v>206418.61</v>
+        <v>189240.37</v>
       </c>
       <c r="L24" t="n">
-        <v>206453.36</v>
+        <v>189192.7</v>
       </c>
       <c r="M24" t="n">
-        <v>206394.71</v>
+        <v>189147.79</v>
+      </c>
+      <c r="N24" t="n">
+        <v>189155.44</v>
+      </c>
+      <c r="O24" t="n">
+        <v>189174.87</v>
+      </c>
+      <c r="P24" t="n">
+        <v>189234.35</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>189170.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>189132.41</v>
+      </c>
+      <c r="S24" t="n">
+        <v>189230.06</v>
+      </c>
+      <c r="T24" t="n">
+        <v>189205.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>189199.19</v>
+      </c>
+      <c r="V24" t="n">
+        <v>190553.07</v>
+      </c>
+      <c r="W24" t="n">
+        <v>190586.83</v>
+      </c>
+      <c r="X24" t="n">
+        <v>190591.53</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>190582.81</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>190503.22</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>190560</v>
       </c>
     </row>
     <row r="25">
@@ -1461,38 +2527,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35857.41</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>35751.34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>35775.11</v>
+      </c>
       <c r="D25" t="n">
-        <v>35801.2</v>
+        <v>36090.79</v>
       </c>
       <c r="E25" t="n">
-        <v>35847.13</v>
+        <v>35776.48</v>
       </c>
       <c r="F25" t="n">
-        <v>35788.46</v>
+        <v>35779.53</v>
       </c>
       <c r="G25" t="n">
-        <v>35839.95</v>
+        <v>33029.55</v>
       </c>
       <c r="H25" t="n">
-        <v>35827.92</v>
+        <v>33065.23</v>
       </c>
       <c r="I25" t="n">
-        <v>35822.42</v>
+        <v>33061.82</v>
       </c>
       <c r="J25" t="n">
-        <v>35860.06</v>
+        <v>33043.67</v>
       </c>
       <c r="K25" t="n">
-        <v>35814.79</v>
+        <v>33021.51</v>
       </c>
       <c r="L25" t="n">
-        <v>35798.81</v>
+        <v>33021.06</v>
       </c>
       <c r="M25" t="n">
-        <v>35751.34</v>
+        <v>33007.78</v>
+      </c>
+      <c r="N25" t="n">
+        <v>24903.57</v>
+      </c>
+      <c r="O25" t="n">
+        <v>24931.49</v>
+      </c>
+      <c r="P25" t="n">
+        <v>24911.37</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>24934.69</v>
+      </c>
+      <c r="R25" t="n">
+        <v>24956.64</v>
+      </c>
+      <c r="S25" t="n">
+        <v>24903.16</v>
+      </c>
+      <c r="T25" t="n">
+        <v>24895.96</v>
+      </c>
+      <c r="U25" t="n">
+        <v>24869.79</v>
+      </c>
+      <c r="V25" t="n">
+        <v>24925.96</v>
+      </c>
+      <c r="W25" t="n">
+        <v>24922.36</v>
+      </c>
+      <c r="X25" t="n">
+        <v>24909.39</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>24913.13</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>24877.91</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>24879.02</v>
       </c>
     </row>
     <row r="26">
@@ -1502,38 +2612,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122389.53</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>132238.09</v>
+      </c>
+      <c r="C26" t="n">
+        <v>127962.93</v>
+      </c>
       <c r="D26" t="n">
-        <v>120943.03</v>
+        <v>130132.67</v>
       </c>
       <c r="E26" t="n">
-        <v>133216.34</v>
+        <v>126455.04</v>
       </c>
       <c r="F26" t="n">
-        <v>137457.6</v>
+        <v>136787.89</v>
       </c>
       <c r="G26" t="n">
-        <v>141409.92</v>
+        <v>142442.21</v>
       </c>
       <c r="H26" t="n">
-        <v>149339.37</v>
+        <v>140958.8</v>
       </c>
       <c r="I26" t="n">
-        <v>146633.57</v>
+        <v>140598.65</v>
       </c>
       <c r="J26" t="n">
-        <v>145660.1</v>
+        <v>134980.47</v>
       </c>
       <c r="K26" t="n">
-        <v>140331.54</v>
+        <v>136973.07</v>
       </c>
       <c r="L26" t="n">
-        <v>139228.62</v>
+        <v>135781.41</v>
       </c>
       <c r="M26" t="n">
-        <v>132238.09</v>
+        <v>129316.85</v>
+      </c>
+      <c r="N26" t="n">
+        <v>123808.66</v>
+      </c>
+      <c r="O26" t="n">
+        <v>131217.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>143638.29</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>149351.02</v>
+      </c>
+      <c r="R26" t="n">
+        <v>171160.52</v>
+      </c>
+      <c r="S26" t="n">
+        <v>176050.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>168808.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>170781.59</v>
+      </c>
+      <c r="V26" t="n">
+        <v>178982.6</v>
+      </c>
+      <c r="W26" t="n">
+        <v>186864.24</v>
+      </c>
+      <c r="X26" t="n">
+        <v>195375.32</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>180398.28</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>166461.44</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>152348.16</v>
       </c>
     </row>
     <row r="27">
@@ -1543,38 +2697,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120543.2</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>125036.27</v>
+      </c>
+      <c r="C27" t="n">
+        <v>120405.16</v>
+      </c>
       <c r="D27" t="n">
-        <v>123892.09</v>
+        <v>121455.3</v>
       </c>
       <c r="E27" t="n">
-        <v>126337.61</v>
+        <v>117479.41</v>
       </c>
       <c r="F27" t="n">
-        <v>126508.24</v>
+        <v>129324.6</v>
       </c>
       <c r="G27" t="n">
-        <v>129369.2</v>
+        <v>133443.09</v>
       </c>
       <c r="H27" t="n">
-        <v>136528.16</v>
+        <v>132089.56</v>
       </c>
       <c r="I27" t="n">
-        <v>136196.95</v>
+        <v>130619.19</v>
       </c>
       <c r="J27" t="n">
-        <v>135042.13</v>
+        <v>131350.44</v>
       </c>
       <c r="K27" t="n">
-        <v>135065.26</v>
+        <v>132242.9</v>
       </c>
       <c r="L27" t="n">
-        <v>132139.32</v>
+        <v>134908.58</v>
       </c>
       <c r="M27" t="n">
-        <v>125036.27</v>
+        <v>130861.78</v>
+      </c>
+      <c r="N27" t="n">
+        <v>126339.26</v>
+      </c>
+      <c r="O27" t="n">
+        <v>129959.95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>142935.22</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>148121.16</v>
+      </c>
+      <c r="R27" t="n">
+        <v>162310.55</v>
+      </c>
+      <c r="S27" t="n">
+        <v>165231.7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>161915.98</v>
+      </c>
+      <c r="U27" t="n">
+        <v>160513.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>163373.71</v>
+      </c>
+      <c r="W27" t="n">
+        <v>173663.1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>176685.55</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>165477.13</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>156531.97</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>149338.06</v>
       </c>
     </row>
     <row r="28">
@@ -1584,38 +2782,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>196570.7</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>190615.98</v>
+      </c>
+      <c r="C28" t="n">
+        <v>189672.28</v>
+      </c>
       <c r="D28" t="n">
-        <v>185807.2</v>
+        <v>190892.84</v>
       </c>
       <c r="E28" t="n">
-        <v>208228.75</v>
+        <v>183268.41</v>
       </c>
       <c r="F28" t="n">
-        <v>206761.29</v>
+        <v>193246.19</v>
       </c>
       <c r="G28" t="n">
-        <v>206809.41</v>
+        <v>196714.36</v>
       </c>
       <c r="H28" t="n">
-        <v>206811.12</v>
+        <v>193558.32</v>
       </c>
       <c r="I28" t="n">
-        <v>204500.92</v>
+        <v>204012.42</v>
       </c>
       <c r="J28" t="n">
-        <v>202079.09</v>
+        <v>212413.03</v>
       </c>
       <c r="K28" t="n">
-        <v>202132.13</v>
+        <v>212468.31</v>
       </c>
       <c r="L28" t="n">
-        <v>196184.13</v>
+        <v>213431.59</v>
       </c>
       <c r="M28" t="n">
-        <v>190615.98</v>
+        <v>221615.21</v>
+      </c>
+      <c r="N28" t="n">
+        <v>221310.81</v>
+      </c>
+      <c r="O28" t="n">
+        <v>222358.15</v>
+      </c>
+      <c r="P28" t="n">
+        <v>225365.28</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>262142.43</v>
+      </c>
+      <c r="R28" t="n">
+        <v>271877.44</v>
+      </c>
+      <c r="S28" t="n">
+        <v>249592.33</v>
+      </c>
+      <c r="T28" t="n">
+        <v>245622.73</v>
+      </c>
+      <c r="U28" t="n">
+        <v>241557.18</v>
+      </c>
+      <c r="V28" t="n">
+        <v>251155.04</v>
+      </c>
+      <c r="W28" t="n">
+        <v>255003.93</v>
+      </c>
+      <c r="X28" t="n">
+        <v>266799.08</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>238120.07</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>242926.1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>223432.05</v>
       </c>
     </row>
     <row r="29">
@@ -1625,40 +2867,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128858.05</v>
+        <v>152836.76</v>
       </c>
       <c r="C29" t="n">
-        <v>121976.55</v>
+        <v>140818.08</v>
       </c>
       <c r="D29" t="n">
-        <v>126962.49</v>
+        <v>142061.95</v>
       </c>
       <c r="E29" t="n">
-        <v>137975.94</v>
+        <v>105859.7</v>
       </c>
       <c r="F29" t="n">
-        <v>138800.87</v>
+        <v>105842.87</v>
       </c>
       <c r="G29" t="n">
-        <v>142823.43</v>
+        <v>103871.02</v>
       </c>
       <c r="H29" t="n">
-        <v>142858.27</v>
+        <v>103829.13</v>
       </c>
       <c r="I29" t="n">
-        <v>142816.61</v>
+        <v>108464.61</v>
       </c>
       <c r="J29" t="n">
-        <v>142804.23</v>
+        <v>110937.05</v>
       </c>
       <c r="K29" t="n">
-        <v>152842.6</v>
+        <v>110919.39</v>
       </c>
       <c r="L29" t="n">
-        <v>151325.15</v>
+        <v>110961.02</v>
       </c>
       <c r="M29" t="n">
-        <v>152836.76</v>
+        <v>111211.62</v>
+      </c>
+      <c r="N29" t="n">
+        <v>109227.99</v>
+      </c>
+      <c r="O29" t="n">
+        <v>113219.15</v>
+      </c>
+      <c r="P29" t="n">
+        <v>118251.21</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>131241.3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>135677.26</v>
+      </c>
+      <c r="S29" t="n">
+        <v>132240.51</v>
+      </c>
+      <c r="T29" t="n">
+        <v>131672.68</v>
+      </c>
+      <c r="U29" t="n">
+        <v>131741.4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>127391.47</v>
+      </c>
+      <c r="W29" t="n">
+        <v>128926.39</v>
+      </c>
+      <c r="X29" t="n">
+        <v>131767.71</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>127389.46</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>128037.11</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>126253.6</v>
       </c>
     </row>
     <row r="30">
@@ -1668,40 +2952,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>71116.75</v>
+        <v>48037.3</v>
       </c>
       <c r="C30" t="n">
-        <v>71086.22</v>
+        <v>48023.56</v>
       </c>
       <c r="D30" t="n">
-        <v>62846.99</v>
+        <v>48232.17</v>
       </c>
       <c r="E30" t="n">
-        <v>51637.68</v>
+        <v>47810.08</v>
       </c>
       <c r="F30" t="n">
-        <v>51627.87</v>
+        <v>47834.83</v>
       </c>
       <c r="G30" t="n">
-        <v>51623.28</v>
+        <v>47825.53</v>
       </c>
       <c r="H30" t="n">
-        <v>51612.4</v>
+        <v>47828.23</v>
       </c>
       <c r="I30" t="n">
-        <v>51626.62</v>
+        <v>47816.78</v>
       </c>
       <c r="J30" t="n">
-        <v>51624.28</v>
+        <v>47806.99</v>
       </c>
       <c r="K30" t="n">
-        <v>51629.65</v>
+        <v>47812.58</v>
       </c>
       <c r="L30" t="n">
-        <v>51622.97</v>
+        <v>47814.55</v>
       </c>
       <c r="M30" t="n">
-        <v>48037.3</v>
+        <v>47835.43</v>
+      </c>
+      <c r="N30" t="n">
+        <v>47819.25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>47830.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>44457.54</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>43188.1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>43184.14</v>
+      </c>
+      <c r="S30" t="n">
+        <v>43177.46</v>
+      </c>
+      <c r="T30" t="n">
+        <v>43192.16</v>
+      </c>
+      <c r="U30" t="n">
+        <v>43181.02</v>
+      </c>
+      <c r="V30" t="n">
+        <v>43199.04</v>
+      </c>
+      <c r="W30" t="n">
+        <v>43184.61</v>
+      </c>
+      <c r="X30" t="n">
+        <v>43201</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>43178.47</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>43195.32</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>42192.76</v>
       </c>
     </row>
     <row r="31">
@@ -1711,40 +3037,82 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540169.14</v>
+        <v>500020.63</v>
       </c>
       <c r="C31" t="n">
-        <v>550171.0699999999</v>
+        <v>500040.94</v>
       </c>
       <c r="D31" t="n">
-        <v>550020.61</v>
+        <v>504296.84</v>
       </c>
       <c r="E31" t="n">
-        <v>550077.4399999999</v>
+        <v>500019.13</v>
       </c>
       <c r="F31" t="n">
-        <v>524985.6800000001</v>
+        <v>525047.16</v>
       </c>
       <c r="G31" t="n">
-        <v>524917.26</v>
+        <v>524913.4399999999</v>
       </c>
       <c r="H31" t="n">
-        <v>525015.26</v>
+        <v>549920.08</v>
       </c>
       <c r="I31" t="n">
-        <v>524857.97</v>
+        <v>550123.74</v>
       </c>
       <c r="J31" t="n">
-        <v>524988.67</v>
+        <v>575023.63</v>
       </c>
       <c r="K31" t="n">
-        <v>500159.77</v>
+        <v>575124.79</v>
       </c>
       <c r="L31" t="n">
-        <v>499975.3</v>
+        <v>574987.09</v>
       </c>
       <c r="M31" t="n">
-        <v>500020.63</v>
+        <v>574836.87</v>
+      </c>
+      <c r="N31" t="n">
+        <v>574874.54</v>
+      </c>
+      <c r="O31" t="n">
+        <v>574917.66</v>
+      </c>
+      <c r="P31" t="n">
+        <v>499963.47</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>499912.44</v>
+      </c>
+      <c r="R31" t="n">
+        <v>530106.34</v>
+      </c>
+      <c r="S31" t="n">
+        <v>529993.61</v>
+      </c>
+      <c r="T31" t="n">
+        <v>440108.95</v>
+      </c>
+      <c r="U31" t="n">
+        <v>415028.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>385055.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>385108.27</v>
+      </c>
+      <c r="X31" t="n">
+        <v>385078.91</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>372953.72</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>353087.21</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>295065.14</v>
       </c>
     </row>
     <row r="32">
@@ -1754,40 +3122,82 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26072.86</v>
+        <v>22773.01</v>
       </c>
       <c r="C32" t="n">
-        <v>26066.84</v>
+        <v>22767.17</v>
       </c>
       <c r="D32" t="n">
-        <v>23565.37</v>
+        <v>22162.9</v>
       </c>
       <c r="E32" t="n">
-        <v>23368.06</v>
+        <v>21371.66</v>
       </c>
       <c r="F32" t="n">
-        <v>23366.56</v>
+        <v>21374.74</v>
       </c>
       <c r="G32" t="n">
-        <v>23371.38</v>
+        <v>23575.1</v>
       </c>
       <c r="H32" t="n">
-        <v>23373.14</v>
+        <v>23570.81</v>
       </c>
       <c r="I32" t="n">
-        <v>24375.27</v>
+        <v>23565.98</v>
       </c>
       <c r="J32" t="n">
-        <v>24365.96</v>
+        <v>24570.06</v>
       </c>
       <c r="K32" t="n">
-        <v>24370.77</v>
+        <v>24573.37</v>
       </c>
       <c r="L32" t="n">
-        <v>22774.01</v>
+        <v>24568.92</v>
       </c>
       <c r="M32" t="n">
-        <v>22773.01</v>
+        <v>24575.66</v>
+      </c>
+      <c r="N32" t="n">
+        <v>24566.82</v>
+      </c>
+      <c r="O32" t="n">
+        <v>24565.38</v>
+      </c>
+      <c r="P32" t="n">
+        <v>24570.07</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>26576.81</v>
+      </c>
+      <c r="R32" t="n">
+        <v>26573.33</v>
+      </c>
+      <c r="S32" t="n">
+        <v>26563.55</v>
+      </c>
+      <c r="T32" t="n">
+        <v>26567.58</v>
+      </c>
+      <c r="U32" t="n">
+        <v>26067.19</v>
+      </c>
+      <c r="V32" t="n">
+        <v>25075.28</v>
+      </c>
+      <c r="W32" t="n">
+        <v>27075.32</v>
+      </c>
+      <c r="X32" t="n">
+        <v>29569.14</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>33564.96</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>29570.73</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>27268.37</v>
       </c>
     </row>
     <row r="33">
@@ -1797,40 +3207,82 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4065.63</v>
+        <v>4913.95</v>
       </c>
       <c r="C33" t="n">
-        <v>4066.04</v>
+        <v>4916.26</v>
       </c>
       <c r="D33" t="n">
-        <v>4066.06</v>
+        <v>4957.4</v>
       </c>
       <c r="E33" t="n">
-        <v>4515.83</v>
+        <v>5514.6</v>
       </c>
       <c r="F33" t="n">
-        <v>4513.93</v>
+        <v>5516.18</v>
       </c>
       <c r="G33" t="n">
-        <v>4916.14</v>
+        <v>6965.99</v>
       </c>
       <c r="H33" t="n">
-        <v>4915.26</v>
+        <v>6964.24</v>
       </c>
       <c r="I33" t="n">
-        <v>4915.02</v>
+        <v>6963.7</v>
       </c>
       <c r="J33" t="n">
-        <v>4913.8</v>
+        <v>7464</v>
       </c>
       <c r="K33" t="n">
-        <v>4915.43</v>
+        <v>6866.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4915.6</v>
+        <v>6866.5</v>
       </c>
       <c r="M33" t="n">
-        <v>4913.95</v>
+        <v>6864.33</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6864.77</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6866.49</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6865.88</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>6864.7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6864.2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6866.57</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6866.35</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6863.78</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6864.56</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6866.15</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6866.62</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>6866.44</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>6864.47</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6866.55</v>
       </c>
     </row>
     <row r="34">
@@ -1840,40 +3292,82 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88625.83</v>
+        <v>55922.63</v>
       </c>
       <c r="C34" t="n">
-        <v>90634.21000000001</v>
+        <v>57415.66</v>
       </c>
       <c r="D34" t="n">
-        <v>89422.64</v>
+        <v>57916.91</v>
       </c>
       <c r="E34" t="n">
-        <v>87402.08</v>
+        <v>55923.89</v>
       </c>
       <c r="F34" t="n">
-        <v>85417.88</v>
+        <v>56420.94</v>
       </c>
       <c r="G34" t="n">
-        <v>83405.27</v>
+        <v>54630.16</v>
       </c>
       <c r="H34" t="n">
-        <v>81925.62</v>
+        <v>54601.46</v>
       </c>
       <c r="I34" t="n">
-        <v>73404.06</v>
+        <v>56606.6</v>
       </c>
       <c r="J34" t="n">
-        <v>70908.88</v>
+        <v>56609.67</v>
       </c>
       <c r="K34" t="n">
-        <v>68923.34</v>
+        <v>59617.93</v>
       </c>
       <c r="L34" t="n">
-        <v>55925.38</v>
+        <v>60623.75</v>
       </c>
       <c r="M34" t="n">
-        <v>55922.63</v>
+        <v>60613.42</v>
+      </c>
+      <c r="N34" t="n">
+        <v>63612.57</v>
+      </c>
+      <c r="O34" t="n">
+        <v>63614.11</v>
+      </c>
+      <c r="P34" t="n">
+        <v>62118.7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>62113.89</v>
+      </c>
+      <c r="R34" t="n">
+        <v>62108.79</v>
+      </c>
+      <c r="S34" t="n">
+        <v>63110.29</v>
+      </c>
+      <c r="T34" t="n">
+        <v>63118.18</v>
+      </c>
+      <c r="U34" t="n">
+        <v>63110.8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>63117.78</v>
+      </c>
+      <c r="W34" t="n">
+        <v>64105.95</v>
+      </c>
+      <c r="X34" t="n">
+        <v>71119.7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>72619.74000000001</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>71629.06</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>71617.36</v>
       </c>
     </row>
     <row r="35">
@@ -1883,40 +3377,82 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137116.83</v>
+        <v>105898.88</v>
       </c>
       <c r="C35" t="n">
-        <v>139635.16</v>
+        <v>107422.46</v>
       </c>
       <c r="D35" t="n">
-        <v>103133.48</v>
+        <v>108324.56</v>
       </c>
       <c r="E35" t="n">
-        <v>105603.26</v>
+        <v>107434.23</v>
       </c>
       <c r="F35" t="n">
-        <v>105593.3</v>
+        <v>107393.65</v>
       </c>
       <c r="G35" t="n">
-        <v>109598.08</v>
+        <v>112432.34</v>
       </c>
       <c r="H35" t="n">
-        <v>112586.88</v>
+        <v>112415.97</v>
       </c>
       <c r="I35" t="n">
-        <v>111637.04</v>
+        <v>112400.05</v>
       </c>
       <c r="J35" t="n">
-        <v>111632.03</v>
+        <v>112423.12</v>
       </c>
       <c r="K35" t="n">
-        <v>114622.72</v>
+        <v>112393.5</v>
       </c>
       <c r="L35" t="n">
-        <v>105923.81</v>
+        <v>113410.18</v>
       </c>
       <c r="M35" t="n">
-        <v>105898.88</v>
+        <v>113437.32</v>
+      </c>
+      <c r="N35" t="n">
+        <v>113400.93</v>
+      </c>
+      <c r="O35" t="n">
+        <v>113427.13</v>
+      </c>
+      <c r="P35" t="n">
+        <v>116414.83</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>116407.64</v>
+      </c>
+      <c r="R35" t="n">
+        <v>116415.63</v>
+      </c>
+      <c r="S35" t="n">
+        <v>116436.14</v>
+      </c>
+      <c r="T35" t="n">
+        <v>119443.64</v>
+      </c>
+      <c r="U35" t="n">
+        <v>120943.58</v>
+      </c>
+      <c r="V35" t="n">
+        <v>122917.2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>125420.43</v>
+      </c>
+      <c r="X35" t="n">
+        <v>125394.7</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>125391.17</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>120395.21</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>119953.8</v>
       </c>
     </row>
     <row r="36">
@@ -1926,494 +3462,972 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28550.44</v>
+        <v>41383.26</v>
       </c>
       <c r="C36" t="n">
-        <v>29876.95</v>
+        <v>41380.49</v>
       </c>
       <c r="D36" t="n">
-        <v>38371.7</v>
+        <v>40571.2</v>
       </c>
       <c r="E36" t="n">
-        <v>40184.05</v>
+        <v>39832.58</v>
       </c>
       <c r="F36" t="n">
-        <v>39806.23</v>
+        <v>40529.89</v>
       </c>
       <c r="G36" t="n">
-        <v>39796.01</v>
+        <v>43013.22</v>
       </c>
       <c r="H36" t="n">
-        <v>47271.77</v>
+        <v>44284.45</v>
       </c>
       <c r="I36" t="n">
-        <v>47270.26</v>
+        <v>45769.06</v>
       </c>
       <c r="J36" t="n">
-        <v>47289.79</v>
+        <v>46561.14</v>
       </c>
       <c r="K36" t="n">
-        <v>47283.17</v>
+        <v>48920.59</v>
       </c>
       <c r="L36" t="n">
-        <v>46945.15</v>
+        <v>48912.11</v>
       </c>
       <c r="M36" t="n">
-        <v>41383.26</v>
+        <v>56849.48</v>
+      </c>
+      <c r="N36" t="n">
+        <v>56870.75</v>
+      </c>
+      <c r="O36" t="n">
+        <v>58281.96</v>
+      </c>
+      <c r="P36" t="n">
+        <v>59733.05</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>59732.7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>59716.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>59729.13</v>
+      </c>
+      <c r="T36" t="n">
+        <v>52307.47</v>
+      </c>
+      <c r="U36" t="n">
+        <v>45331.21</v>
+      </c>
+      <c r="V36" t="n">
+        <v>44343.44</v>
+      </c>
+      <c r="W36" t="n">
+        <v>43388.82</v>
+      </c>
+      <c r="X36" t="n">
+        <v>45102.28</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>38545.52</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>42066.57</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>42061.95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>22630.17</v>
-      </c>
-      <c r="C37" t="n">
-        <v>23803.54</v>
-      </c>
-      <c r="D37" t="n">
-        <v>25402.31</v>
-      </c>
-      <c r="E37" t="n">
-        <v>28596.32</v>
-      </c>
-      <c r="F37" t="n">
-        <v>28500.35</v>
-      </c>
-      <c r="G37" t="n">
-        <v>29193.95</v>
-      </c>
-      <c r="H37" t="n">
-        <v>29191.58</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29205.51</v>
-      </c>
-      <c r="J37" t="n">
-        <v>29005.49</v>
-      </c>
-      <c r="K37" t="n">
-        <v>27925.8</v>
-      </c>
-      <c r="L37" t="n">
-        <v>27473.51</v>
-      </c>
-      <c r="M37" t="n">
-        <v>22997.24</v>
+          <t>IEB Value</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>334.24</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>334.67</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>335.45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15721.9</v>
+        <v>22997.24</v>
       </c>
       <c r="C38" t="n">
-        <v>15723.67</v>
+        <v>22194.6</v>
       </c>
       <c r="D38" t="n">
-        <v>15717.55</v>
+        <v>22396.05</v>
       </c>
       <c r="E38" t="n">
-        <v>15727.67</v>
+        <v>22195.19</v>
       </c>
       <c r="F38" t="n">
-        <v>15723.65</v>
+        <v>22798.26</v>
       </c>
       <c r="G38" t="n">
-        <v>15724.25</v>
+        <v>24369.83</v>
       </c>
       <c r="H38" t="n">
-        <v>15719.09</v>
+        <v>24308.54</v>
       </c>
       <c r="I38" t="n">
-        <v>15718.14</v>
+        <v>24300.8</v>
       </c>
       <c r="J38" t="n">
-        <v>15726.42</v>
+        <v>23000.54</v>
       </c>
       <c r="K38" t="n">
-        <v>15729.27</v>
+        <v>22991.57</v>
       </c>
       <c r="L38" t="n">
-        <v>15724.56</v>
+        <v>24251.79</v>
       </c>
       <c r="M38" t="n">
-        <v>15721.23</v>
+        <v>27739.76</v>
+      </c>
+      <c r="N38" t="n">
+        <v>25745.59</v>
+      </c>
+      <c r="O38" t="n">
+        <v>26450.22</v>
+      </c>
+      <c r="P38" t="n">
+        <v>35741.12</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>35749.39</v>
+      </c>
+      <c r="R38" t="n">
+        <v>35740.78</v>
+      </c>
+      <c r="S38" t="n">
+        <v>35746.47</v>
+      </c>
+      <c r="T38" t="n">
+        <v>35146.78</v>
+      </c>
+      <c r="U38" t="n">
+        <v>33955.08</v>
+      </c>
+      <c r="V38" t="n">
+        <v>34857</v>
+      </c>
+      <c r="W38" t="n">
+        <v>35752.49</v>
+      </c>
+      <c r="X38" t="n">
+        <v>36188.38</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>35747.57</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>35497.94</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>34270.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25097.35</v>
+        <v>15721.23</v>
       </c>
       <c r="C39" t="n">
-        <v>25101.66</v>
+        <v>15721.48</v>
       </c>
       <c r="D39" t="n">
-        <v>18101.92</v>
+        <v>15857.51</v>
       </c>
       <c r="E39" t="n">
-        <v>21999.94</v>
+        <v>15727.61</v>
       </c>
       <c r="F39" t="n">
-        <v>21387.63</v>
+        <v>15724.03</v>
       </c>
       <c r="G39" t="n">
-        <v>23185.77</v>
+        <v>15727.56</v>
       </c>
       <c r="H39" t="n">
-        <v>23193.75</v>
+        <v>15719.17</v>
       </c>
       <c r="I39" t="n">
-        <v>23186.45</v>
+        <v>15728.9</v>
       </c>
       <c r="J39" t="n">
-        <v>23191.49</v>
+        <v>15728.98</v>
       </c>
       <c r="K39" t="n">
-        <v>23191.57</v>
+        <v>15718.06</v>
       </c>
       <c r="L39" t="n">
-        <v>23184.53</v>
+        <v>15718.74</v>
       </c>
       <c r="M39" t="n">
-        <v>23184.33</v>
+        <v>15724.66</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15718.03</v>
+      </c>
+      <c r="O39" t="n">
+        <v>15721.18</v>
+      </c>
+      <c r="P39" t="n">
+        <v>15724.51</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>16605.91</v>
+      </c>
+      <c r="R39" t="n">
+        <v>16603.72</v>
+      </c>
+      <c r="S39" t="n">
+        <v>16593.52</v>
+      </c>
+      <c r="T39" t="n">
+        <v>16599.27</v>
+      </c>
+      <c r="U39" t="n">
+        <v>23603.31</v>
+      </c>
+      <c r="V39" t="n">
+        <v>23595.22</v>
+      </c>
+      <c r="W39" t="n">
+        <v>23602.7</v>
+      </c>
+      <c r="X39" t="n">
+        <v>23597.64</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>23603.29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>23595.9</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>23598.43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59798.1</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>23184.33</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23186.6</v>
+      </c>
       <c r="D40" t="n">
-        <v>59805.93</v>
+        <v>23387.23</v>
       </c>
       <c r="E40" t="n">
-        <v>59792.52</v>
+        <v>22638.18</v>
       </c>
       <c r="F40" t="n">
-        <v>59806.38</v>
+        <v>22639.09</v>
       </c>
       <c r="G40" t="n">
-        <v>59790.22</v>
+        <v>22641.18</v>
       </c>
       <c r="H40" t="n">
-        <v>59794.62</v>
+        <v>22633.9</v>
       </c>
       <c r="I40" t="n">
-        <v>59808.13</v>
+        <v>20443.53</v>
       </c>
       <c r="J40" t="n">
-        <v>59786.09</v>
+        <v>20438.74</v>
       </c>
       <c r="K40" t="n">
-        <v>59797.46</v>
+        <v>20436.52</v>
       </c>
       <c r="L40" t="n">
-        <v>59794.32</v>
+        <v>20439.95</v>
       </c>
       <c r="M40" t="n">
-        <v>59806.92</v>
+        <v>20441.42</v>
+      </c>
+      <c r="N40" t="n">
+        <v>19289.73</v>
+      </c>
+      <c r="O40" t="n">
+        <v>19287.83</v>
+      </c>
+      <c r="P40" t="n">
+        <v>19290.54</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>19284.59</v>
+      </c>
+      <c r="R40" t="n">
+        <v>19607.65</v>
+      </c>
+      <c r="S40" t="n">
+        <v>19926.05</v>
+      </c>
+      <c r="T40" t="n">
+        <v>19923.61</v>
+      </c>
+      <c r="U40" t="n">
+        <v>19924.31</v>
+      </c>
+      <c r="V40" t="n">
+        <v>19924.13</v>
+      </c>
+      <c r="W40" t="n">
+        <v>24671.77</v>
+      </c>
+      <c r="X40" t="n">
+        <v>24680.37</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>24675.35</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>24293.57</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>24289.45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98012.89999999999</v>
+        <v>59806.92</v>
       </c>
       <c r="C41" t="n">
-        <v>98045.22</v>
+        <v>59788.71</v>
       </c>
       <c r="D41" t="n">
-        <v>109811</v>
+        <v>60310.11</v>
       </c>
       <c r="E41" t="n">
-        <v>109860.13</v>
+        <v>59793.59</v>
       </c>
       <c r="F41" t="n">
-        <v>109831.47</v>
+        <v>59801.43</v>
       </c>
       <c r="G41" t="n">
-        <v>114856.28</v>
+        <v>59787.03</v>
       </c>
       <c r="H41" t="n">
-        <v>114819.19</v>
+        <v>59801.04</v>
       </c>
       <c r="I41" t="n">
-        <v>114844.91</v>
+        <v>59818.54</v>
       </c>
       <c r="J41" t="n">
-        <v>114826.97</v>
+        <v>59804.8</v>
       </c>
       <c r="K41" t="n">
-        <v>108259.64</v>
+        <v>59783.48</v>
       </c>
       <c r="L41" t="n">
-        <v>95045.58</v>
+        <v>59813.41</v>
       </c>
       <c r="M41" t="n">
-        <v>95020.24000000001</v>
+        <v>59792.59</v>
+      </c>
+      <c r="N41" t="n">
+        <v>59806.15</v>
+      </c>
+      <c r="O41" t="n">
+        <v>62380.07</v>
+      </c>
+      <c r="P41" t="n">
+        <v>74666.67</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>74691.41</v>
+      </c>
+      <c r="R41" t="n">
+        <v>74666.89</v>
+      </c>
+      <c r="S41" t="n">
+        <v>74695.25999999999</v>
+      </c>
+      <c r="T41" t="n">
+        <v>74663.24000000001</v>
+      </c>
+      <c r="U41" t="n">
+        <v>74682.83</v>
+      </c>
+      <c r="V41" t="n">
+        <v>74671.62</v>
+      </c>
+      <c r="W41" t="n">
+        <v>74667.28</v>
+      </c>
+      <c r="X41" t="n">
+        <v>81831.84</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>75738.03999999999</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>75720.39</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>75740.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35588.62</v>
+        <v>95020.24000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>35601.34</v>
+        <v>95054.00999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>35587.07</v>
+        <v>95843.64999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>40597.29</v>
+        <v>95025.82000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>40594.45</v>
+        <v>95051.08</v>
       </c>
       <c r="G42" t="n">
-        <v>40604.4</v>
+        <v>95041.38</v>
       </c>
       <c r="H42" t="n">
-        <v>42585.48</v>
+        <v>95032.17</v>
       </c>
       <c r="I42" t="n">
-        <v>40598.85</v>
+        <v>104444.26</v>
       </c>
       <c r="J42" t="n">
-        <v>43102.11</v>
+        <v>110466.72</v>
       </c>
       <c r="K42" t="n">
-        <v>40100.15</v>
+        <v>110449.11</v>
       </c>
       <c r="L42" t="n">
-        <v>42603.06</v>
+        <v>119209.43</v>
       </c>
       <c r="M42" t="n">
-        <v>42095.26</v>
+        <v>119153.91</v>
+      </c>
+      <c r="N42" t="n">
+        <v>119169.61</v>
+      </c>
+      <c r="O42" t="n">
+        <v>138523.33</v>
+      </c>
+      <c r="P42" t="n">
+        <v>151356.88</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>151327.57</v>
+      </c>
+      <c r="R42" t="n">
+        <v>151407.96</v>
+      </c>
+      <c r="S42" t="n">
+        <v>151390.35</v>
+      </c>
+      <c r="T42" t="n">
+        <v>151864.73</v>
+      </c>
+      <c r="U42" t="n">
+        <v>142925.08</v>
+      </c>
+      <c r="V42" t="n">
+        <v>156641.39</v>
+      </c>
+      <c r="W42" t="n">
+        <v>178833.68</v>
+      </c>
+      <c r="X42" t="n">
+        <v>178907.82</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>163583.9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>163574.17</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>133191.22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80197.7</v>
+        <v>42095.26</v>
       </c>
       <c r="C43" t="n">
-        <v>80186.7</v>
+        <v>36587.37</v>
       </c>
       <c r="D43" t="n">
-        <v>78542.13</v>
+        <v>36911.34</v>
       </c>
       <c r="E43" t="n">
-        <v>80972.5</v>
+        <v>36606.32</v>
       </c>
       <c r="F43" t="n">
-        <v>82094.33</v>
+        <v>37893.01</v>
       </c>
       <c r="G43" t="n">
-        <v>80111.47</v>
+        <v>40893.22</v>
       </c>
       <c r="H43" t="n">
-        <v>80092.84</v>
+        <v>39203.32</v>
       </c>
       <c r="I43" t="n">
-        <v>80116.05</v>
+        <v>40208.77</v>
       </c>
       <c r="J43" t="n">
-        <v>80099.52</v>
+        <v>40997.47</v>
       </c>
       <c r="K43" t="n">
-        <v>80091.89999999999</v>
+        <v>41695.22</v>
       </c>
       <c r="L43" t="n">
-        <v>80118.25</v>
+        <v>43499.93</v>
       </c>
       <c r="M43" t="n">
-        <v>80094.3</v>
+        <v>45799.15</v>
+      </c>
+      <c r="N43" t="n">
+        <v>47992.11</v>
+      </c>
+      <c r="O43" t="n">
+        <v>54208.05</v>
+      </c>
+      <c r="P43" t="n">
+        <v>50625.45</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>62034.43</v>
+      </c>
+      <c r="R43" t="n">
+        <v>62016.2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>62026.9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>60733.29</v>
+      </c>
+      <c r="U43" t="n">
+        <v>60336.11</v>
+      </c>
+      <c r="V43" t="n">
+        <v>60325.29</v>
+      </c>
+      <c r="W43" t="n">
+        <v>62335.76</v>
+      </c>
+      <c r="X43" t="n">
+        <v>63023.77</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>59015.58</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>52112.44</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>52109.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56674.56</v>
+        <v>80094.3</v>
       </c>
       <c r="C44" t="n">
-        <v>56675.38</v>
+        <v>80091.47</v>
       </c>
       <c r="D44" t="n">
-        <v>53289.91</v>
+        <v>80815.89</v>
       </c>
       <c r="E44" t="n">
-        <v>52330.8</v>
+        <v>78266.27</v>
       </c>
       <c r="F44" t="n">
-        <v>56549.93</v>
+        <v>78272.50999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>57194.26</v>
+        <v>78246.55</v>
       </c>
       <c r="H44" t="n">
-        <v>57332.25</v>
+        <v>78266.67999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>57341.02</v>
+        <v>78265.22</v>
       </c>
       <c r="J44" t="n">
-        <v>57341.81</v>
+        <v>78239.37</v>
       </c>
       <c r="K44" t="n">
-        <v>57331.42</v>
+        <v>78273.89</v>
       </c>
       <c r="L44" t="n">
-        <v>57329.46</v>
+        <v>78252.91</v>
       </c>
       <c r="M44" t="n">
-        <v>55656.41</v>
+        <v>78272.42</v>
+      </c>
+      <c r="N44" t="n">
+        <v>73853.39</v>
+      </c>
+      <c r="O44" t="n">
+        <v>64596.34</v>
+      </c>
+      <c r="P44" t="n">
+        <v>59716.46</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>59714.37</v>
+      </c>
+      <c r="R44" t="n">
+        <v>59731.49</v>
+      </c>
+      <c r="S44" t="n">
+        <v>61381.74</v>
+      </c>
+      <c r="T44" t="n">
+        <v>61384.54</v>
+      </c>
+      <c r="U44" t="n">
+        <v>61368.95</v>
+      </c>
+      <c r="V44" t="n">
+        <v>61377.03</v>
+      </c>
+      <c r="W44" t="n">
+        <v>62966.96</v>
+      </c>
+      <c r="X44" t="n">
+        <v>62959.76</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>62975.46</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>66691.03999999999</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>66659.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>223662.49</v>
+        <v>55656.41</v>
       </c>
       <c r="C45" t="n">
-        <v>223571.26</v>
+        <v>52664.68</v>
       </c>
       <c r="D45" t="n">
-        <v>202152.05</v>
+        <v>53128.11</v>
       </c>
       <c r="E45" t="n">
-        <v>194262.67</v>
+        <v>53276.45</v>
       </c>
       <c r="F45" t="n">
-        <v>194194.32</v>
+        <v>52610</v>
       </c>
       <c r="G45" t="n">
-        <v>194249.15</v>
+        <v>57333.13</v>
       </c>
       <c r="H45" t="n">
-        <v>191440.28</v>
+        <v>57349.91</v>
       </c>
       <c r="I45" t="n">
-        <v>191498.95</v>
+        <v>57350.2</v>
       </c>
       <c r="J45" t="n">
-        <v>191440.7</v>
+        <v>57329.58</v>
       </c>
       <c r="K45" t="n">
-        <v>191470.62</v>
+        <v>57344.19</v>
       </c>
       <c r="L45" t="n">
-        <v>175690.2</v>
+        <v>56786.21</v>
       </c>
       <c r="M45" t="n">
-        <v>175682.74</v>
+        <v>51258.82</v>
+      </c>
+      <c r="N45" t="n">
+        <v>50475.92</v>
+      </c>
+      <c r="O45" t="n">
+        <v>50908.2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>54714.58</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>55380.52</v>
+      </c>
+      <c r="R45" t="n">
+        <v>55396.49</v>
+      </c>
+      <c r="S45" t="n">
+        <v>55395.03</v>
+      </c>
+      <c r="T45" t="n">
+        <v>60873.63</v>
+      </c>
+      <c r="U45" t="n">
+        <v>60661.46</v>
+      </c>
+      <c r="V45" t="n">
+        <v>59782.88</v>
+      </c>
+      <c r="W45" t="n">
+        <v>59799.05</v>
+      </c>
+      <c r="X45" t="n">
+        <v>66934.03</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>65366.29</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>65344.28</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>65341.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241929.54</v>
+        <v>175682.74</v>
       </c>
       <c r="C46" t="n">
-        <v>242001.9</v>
+        <v>175666.93</v>
       </c>
       <c r="D46" t="n">
-        <v>236713.63</v>
+        <v>177159.82</v>
       </c>
       <c r="E46" t="n">
-        <v>248116.6</v>
+        <v>175654.38</v>
       </c>
       <c r="F46" t="n">
-        <v>248093.21</v>
+        <v>185365.53</v>
       </c>
       <c r="G46" t="n">
-        <v>246877.39</v>
+        <v>188156.26</v>
       </c>
       <c r="H46" t="n">
-        <v>247971.96</v>
+        <v>195711.81</v>
       </c>
       <c r="I46" t="n">
-        <v>247297.04</v>
+        <v>199842.96</v>
       </c>
       <c r="J46" t="n">
-        <v>248111.12</v>
+        <v>199855.95</v>
       </c>
       <c r="K46" t="n">
-        <v>248065.77</v>
+        <v>199940.91</v>
       </c>
       <c r="L46" t="n">
-        <v>287838.62</v>
+        <v>206197.27</v>
       </c>
       <c r="M46" t="n">
-        <v>320154.14</v>
+        <v>206192.24</v>
+      </c>
+      <c r="N46" t="n">
+        <v>206219.76</v>
+      </c>
+      <c r="O46" t="n">
+        <v>206192.96</v>
+      </c>
+      <c r="P46" t="n">
+        <v>157850.45</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>157803.37</v>
+      </c>
+      <c r="R46" t="n">
+        <v>157788.53</v>
+      </c>
+      <c r="S46" t="n">
+        <v>157808.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>153651.15</v>
+      </c>
+      <c r="U46" t="n">
+        <v>141008.99</v>
+      </c>
+      <c r="V46" t="n">
+        <v>141003.52</v>
+      </c>
+      <c r="W46" t="n">
+        <v>140998.37</v>
+      </c>
+      <c r="X46" t="n">
+        <v>141006.97</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>133954.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>141846.12</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>137244.89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>603943.27</v>
+        <v>320154.14</v>
       </c>
       <c r="C47" t="n">
-        <v>660221.95</v>
+        <v>320082.57</v>
       </c>
       <c r="D47" t="n">
-        <v>653885.79</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+        <v>322810.14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>320059.51</v>
+      </c>
+      <c r="F47" t="n">
+        <v>320075.71</v>
+      </c>
+      <c r="G47" t="n">
+        <v>320100.11</v>
+      </c>
+      <c r="H47" t="n">
+        <v>320072.01</v>
+      </c>
+      <c r="I47" t="n">
+        <v>320076.62</v>
+      </c>
+      <c r="J47" t="n">
+        <v>320055.24</v>
+      </c>
+      <c r="K47" t="n">
+        <v>320163.64</v>
+      </c>
+      <c r="L47" t="n">
+        <v>320108.92</v>
+      </c>
+      <c r="M47" t="n">
+        <v>303251.86</v>
+      </c>
+      <c r="N47" t="n">
+        <v>299105.56</v>
+      </c>
+      <c r="O47" t="n">
+        <v>299191.13</v>
+      </c>
+      <c r="P47" t="n">
+        <v>297230.87</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>292202.43</v>
+      </c>
+      <c r="R47" t="n">
+        <v>292454.58</v>
+      </c>
+      <c r="S47" t="n">
+        <v>287938.63</v>
+      </c>
+      <c r="T47" t="n">
+        <v>278139.37</v>
+      </c>
+      <c r="U47" t="n">
+        <v>273418.1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>273377.39</v>
+      </c>
+      <c r="W47" t="n">
+        <v>273416.88</v>
+      </c>
+      <c r="X47" t="n">
+        <v>273482.87</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>273387.37</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>273362.57</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>273427.27</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2422,40 +4436,82 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>88367.8</v>
+        <v>176065.42</v>
       </c>
       <c r="C48" t="n">
-        <v>88426.83</v>
+        <v>176195.9</v>
       </c>
       <c r="D48" t="n">
-        <v>88300.14999999999</v>
+        <v>177733.14</v>
       </c>
       <c r="E48" t="n">
-        <v>143223.89</v>
+        <v>176019.77</v>
       </c>
       <c r="F48" t="n">
-        <v>143144.05</v>
+        <v>176044.22</v>
       </c>
       <c r="G48" t="n">
-        <v>152818.26</v>
+        <v>176047.88</v>
       </c>
       <c r="H48" t="n">
-        <v>152811.07</v>
+        <v>176061.38</v>
       </c>
       <c r="I48" t="n">
-        <v>176061.66</v>
+        <v>176037.71</v>
       </c>
       <c r="J48" t="n">
-        <v>176178.6</v>
+        <v>176089.99</v>
       </c>
       <c r="K48" t="n">
-        <v>176013.09</v>
+        <v>176017.02</v>
       </c>
       <c r="L48" t="n">
-        <v>175995.13</v>
+        <v>176079.83</v>
       </c>
       <c r="M48" t="n">
-        <v>176065.42</v>
+        <v>193009.92</v>
+      </c>
+      <c r="N48" t="n">
+        <v>192941.56</v>
+      </c>
+      <c r="O48" t="n">
+        <v>206035.67</v>
+      </c>
+      <c r="P48" t="n">
+        <v>206035.1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>255645.86</v>
+      </c>
+      <c r="R48" t="n">
+        <v>280015.75</v>
+      </c>
+      <c r="S48" t="n">
+        <v>280076.12</v>
+      </c>
+      <c r="T48" t="n">
+        <v>298249.25</v>
+      </c>
+      <c r="U48" t="n">
+        <v>298277.92</v>
+      </c>
+      <c r="V48" t="n">
+        <v>297998.8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>298172.34</v>
+      </c>
+      <c r="X48" t="n">
+        <v>297930.85</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>298231.65</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>210996.27</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>200212.83</v>
       </c>
     </row>
     <row r="49">
@@ -2465,40 +4521,82 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>30657.53</v>
+        <v>30761.3</v>
       </c>
       <c r="C49" t="n">
-        <v>30750.72</v>
+        <v>30663.78</v>
       </c>
       <c r="D49" t="n">
-        <v>30736.57</v>
+        <v>30924.6</v>
       </c>
       <c r="E49" t="n">
-        <v>30687.55</v>
+        <v>30723.11</v>
       </c>
       <c r="F49" t="n">
-        <v>30749.25</v>
+        <v>30671.54</v>
       </c>
       <c r="G49" t="n">
-        <v>30727.94</v>
+        <v>30693.97</v>
       </c>
       <c r="H49" t="n">
-        <v>30745.96</v>
+        <v>30694.13</v>
       </c>
       <c r="I49" t="n">
-        <v>30682.43</v>
+        <v>30656.88</v>
       </c>
       <c r="J49" t="n">
-        <v>30708.22</v>
+        <v>30664.85</v>
       </c>
       <c r="K49" t="n">
-        <v>30758.08</v>
+        <v>30761.03</v>
       </c>
       <c r="L49" t="n">
-        <v>30690.31</v>
+        <v>30697.66</v>
       </c>
       <c r="M49" t="n">
-        <v>30761.3</v>
+        <v>30664.25</v>
+      </c>
+      <c r="N49" t="n">
+        <v>30751.97</v>
+      </c>
+      <c r="O49" t="n">
+        <v>30705.45</v>
+      </c>
+      <c r="P49" t="n">
+        <v>30749.15</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>50851.24</v>
+      </c>
+      <c r="R49" t="n">
+        <v>50870.52</v>
+      </c>
+      <c r="S49" t="n">
+        <v>50792.8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>50847.28</v>
+      </c>
+      <c r="U49" t="n">
+        <v>50804.8</v>
+      </c>
+      <c r="V49" t="n">
+        <v>50749.42</v>
+      </c>
+      <c r="W49" t="n">
+        <v>50825.22</v>
+      </c>
+      <c r="X49" t="n">
+        <v>50838.31</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>50798.16</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>50873.7</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>50761.01</v>
       </c>
     </row>
     <row r="50">
@@ -2508,151 +4606,252 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25084.87</v>
+        <v>27185.39</v>
       </c>
       <c r="C50" t="n">
-        <v>25868.73</v>
+        <v>27184.8</v>
       </c>
       <c r="D50" t="n">
-        <v>25869.74</v>
+        <v>27416.29</v>
       </c>
       <c r="E50" t="n">
-        <v>25875.39</v>
+        <v>27182.58</v>
       </c>
       <c r="F50" t="n">
-        <v>25877.38</v>
+        <v>27187.71</v>
       </c>
       <c r="G50" t="n">
-        <v>25867.95</v>
+        <v>27938.18</v>
       </c>
       <c r="H50" t="n">
-        <v>25869.05</v>
+        <v>27929.9</v>
       </c>
       <c r="I50" t="n">
-        <v>25872.47</v>
+        <v>27941.45</v>
       </c>
       <c r="J50" t="n">
-        <v>25868.14</v>
+        <v>28875.66</v>
       </c>
       <c r="K50" t="n">
-        <v>25872.51</v>
+        <v>28881.02</v>
       </c>
       <c r="L50" t="n">
-        <v>27179.35</v>
+        <v>29978.87</v>
       </c>
       <c r="M50" t="n">
-        <v>27185.39</v>
+        <v>29975.24</v>
+      </c>
+      <c r="N50" t="n">
+        <v>29976.4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>29972.81</v>
+      </c>
+      <c r="P50" t="n">
+        <v>29974.9</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>31373.66</v>
+      </c>
+      <c r="R50" t="n">
+        <v>31377.59</v>
+      </c>
+      <c r="S50" t="n">
+        <v>31366.25</v>
+      </c>
+      <c r="T50" t="n">
+        <v>31483.56</v>
+      </c>
+      <c r="U50" t="n">
+        <v>29607.55</v>
+      </c>
+      <c r="V50" t="n">
+        <v>29609.46</v>
+      </c>
+      <c r="W50" t="n">
+        <v>29611.1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>27952.19</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>27948.25</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>27981.15</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>27983.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>10957.58</v>
+        <v>100428.13</v>
       </c>
       <c r="C51" t="n">
-        <v>10959.5</v>
+        <v>99061.09</v>
       </c>
       <c r="D51" t="n">
-        <v>10946.96</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+        <v>99422.36</v>
+      </c>
+      <c r="E51" t="n">
+        <v>96702.36</v>
+      </c>
+      <c r="F51" t="n">
+        <v>98209.28999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>99238.59</v>
+      </c>
+      <c r="H51" t="n">
+        <v>99650</v>
+      </c>
+      <c r="I51" t="n">
+        <v>100343.44</v>
+      </c>
+      <c r="J51" t="n">
+        <v>101823.55</v>
+      </c>
+      <c r="K51" t="n">
+        <v>102280.22</v>
+      </c>
+      <c r="L51" t="n">
+        <v>103102.9</v>
+      </c>
+      <c r="M51" t="n">
+        <v>103464.64</v>
+      </c>
+      <c r="N51" t="n">
+        <v>103008.31</v>
+      </c>
+      <c r="O51" t="n">
+        <v>104125.15</v>
+      </c>
+      <c r="P51" t="n">
+        <v>103270.16</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>105974.73</v>
+      </c>
+      <c r="R51" t="n">
+        <v>108758.89</v>
+      </c>
+      <c r="S51" t="n">
+        <v>108760.6</v>
+      </c>
+      <c r="T51" t="n">
+        <v>105501.53</v>
+      </c>
+      <c r="U51" t="n">
+        <v>103970.16</v>
+      </c>
+      <c r="V51" t="n">
+        <v>104163.03</v>
+      </c>
+      <c r="W51" t="n">
+        <v>106118.32</v>
+      </c>
+      <c r="X51" t="n">
+        <v>107666.51</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>102561.75</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>99587.86</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>95924.02</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>113180.26</v>
+        <v>4820550.25</v>
       </c>
       <c r="C52" t="n">
-        <v>111905</v>
+        <v>4754932.36</v>
       </c>
       <c r="D52" t="n">
-        <v>113552.71</v>
+        <v>4772273.19</v>
       </c>
       <c r="E52" t="n">
-        <v>106915.47</v>
+        <v>4641713.07</v>
       </c>
       <c r="F52" t="n">
-        <v>106248.95</v>
+        <v>4714045.76</v>
       </c>
       <c r="G52" t="n">
-        <v>106552.1</v>
+        <v>4763452.09</v>
       </c>
       <c r="H52" t="n">
-        <v>106726.35</v>
+        <v>4783200.21</v>
       </c>
       <c r="I52" t="n">
-        <v>106498.85</v>
+        <v>4816485.33</v>
       </c>
       <c r="J52" t="n">
-        <v>105914.38</v>
+        <v>4887530.46</v>
       </c>
       <c r="K52" t="n">
-        <v>104420.99</v>
+        <v>4909450.38</v>
       </c>
       <c r="L52" t="n">
-        <v>101350.25</v>
+        <v>4948939.33</v>
       </c>
       <c r="M52" t="n">
-        <v>100428.13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>5545832.83</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4364294.97</v>
-      </c>
-      <c r="D53" t="n">
-        <v>5564082.71</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5025027.29</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4993700.86</v>
-      </c>
-      <c r="G53" t="n">
-        <v>5007948.71</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5016138.37</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5005445.99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4977976.06</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4907786.72</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4864811.81</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4820550.25</v>
+        <v>4966302.76</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4944399</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4998007.43</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4956967.78</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5086787.12</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5220426.6</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5220508.94</v>
+      </c>
+      <c r="T52" t="n">
+        <v>5064073.51</v>
+      </c>
+      <c r="U52" t="n">
+        <v>4990567.92</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4999825.35</v>
+      </c>
+      <c r="W52" t="n">
+        <v>5093679.43</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5167992.71</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>5025525.88</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4879805.15</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>4700276.75</v>
       </c>
     </row>
   </sheetData>
